--- a/App/Documents/Creatio-1C 2 _29.07.2020.xlsx
+++ b/App/Documents/Creatio-1C 2 _29.07.2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\■ Work\■ Project Creatio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_VS\DatEx.1C\App\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="713">
   <si>
     <t>Алгоритм интеграции</t>
   </si>
@@ -2744,6 +2744,33 @@
   </si>
   <si>
     <t>InformationRegister_КонтактнаяИнформация</t>
+  </si>
+  <si>
+    <t>Catalog_СотрудникиОрганизаций</t>
+  </si>
+  <si>
+    <t>Catalog_ФизическиеЛица[Физлицо_Key]</t>
+  </si>
+  <si>
+    <t>InformationRegister_ФИОФизЛиц[ТекущаяДата, Физлицо_Key, "ФизЛицо"].Фамилия</t>
+  </si>
+  <si>
+    <t>InformationRegister_ФИОФизЛиц[ТекущаяДата, Физлицо_Key, "ФизЛицо"].Имя</t>
+  </si>
+  <si>
+    <t>InformationRegister_ФИОФизЛиц[ТекущаяДата, Физлицо_Key, "ФизЛицо"].Отчество</t>
+  </si>
+  <si>
+    <t>Организация_Key</t>
+  </si>
+  <si>
+    <t>ПодразделениеОрганизации_Key</t>
+  </si>
+  <si>
+    <t>ТекущаяДолжностьОрганизации_Key</t>
+  </si>
+  <si>
+    <t>Должность_Key</t>
   </si>
 </sst>
 </file>
@@ -3228,7 +3255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3580,31 +3607,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3613,7 +3622,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3643,21 +3682,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3673,6 +3697,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3683,6 +3716,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4684,28 +4747,28 @@
       <c r="J5" s="131"/>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="134" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="134" t="s">
         <v>75</v>
       </c>
       <c r="I6" s="115" t="b">
@@ -4716,16 +4779,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="130"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="130"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="134"/>
       <c r="I7" s="115" t="b">
         <v>1</v>
       </c>
@@ -4836,28 +4899,28 @@
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="130" t="s">
+      <c r="H12" s="134" t="s">
         <v>75</v>
       </c>
       <c r="I12" s="115" t="b">
@@ -4868,59 +4931,59 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="130"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="134"/>
       <c r="I13" s="115" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130" t="s">
+      <c r="A14" s="137"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="137" t="s">
+      <c r="E14" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="137" t="s">
+      <c r="F14" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="130"/>
+      <c r="H14" s="134"/>
       <c r="I14" s="115" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="131"/>
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="130"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="134"/>
       <c r="I15" s="115" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="131"/>
     </row>
     <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="130"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="14" t="s">
         <v>100</v>
       </c>
@@ -4942,9 +5005,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="130"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="14" t="s">
         <v>103</v>
       </c>
@@ -4966,9 +5029,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="130"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="14" t="s">
         <v>104</v>
       </c>
@@ -4990,9 +5053,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="135"/>
-      <c r="C19" s="130"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
@@ -5014,28 +5077,28 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="13" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="134" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="130" t="s">
+      <c r="E20" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="136" t="s">
+      <c r="G20" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="134" t="s">
         <v>112</v>
       </c>
       <c r="I20" s="115" t="s">
@@ -5046,215 +5109,215 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="130"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="129" t="s">
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="140" t="s">
         <v>116</v>
       </c>
       <c r="J21" s="131"/>
     </row>
     <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="130"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="129"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="140"/>
       <c r="J22" s="131"/>
     </row>
     <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="130"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="129"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="140"/>
       <c r="J23" s="131"/>
     </row>
     <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="130"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="129"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="140"/>
       <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="132"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="130"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="129"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="140"/>
       <c r="J25" s="131"/>
     </row>
     <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="130"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="129"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="140"/>
       <c r="J26" s="131"/>
     </row>
     <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="130"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="129"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="140"/>
       <c r="J27" s="131"/>
     </row>
     <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="130"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="129"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="140"/>
       <c r="J28" s="131"/>
     </row>
     <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="130"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="129"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="140"/>
       <c r="J29" s="131"/>
     </row>
     <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="132"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="130"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="129"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="140"/>
       <c r="J30" s="131"/>
     </row>
     <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="132"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="130"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="129"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="140"/>
       <c r="J31" s="131"/>
     </row>
     <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="130"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="129"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="140"/>
       <c r="J32" s="131"/>
     </row>
     <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="130"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="129"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="140"/>
       <c r="J33" s="131"/>
     </row>
     <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="130"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="129"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="140"/>
       <c r="J34" s="131"/>
     </row>
     <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="132"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="130"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="129"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="140"/>
       <c r="J35" s="131"/>
     </row>
     <row r="36" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5681,7 +5744,7 @@
         <v>66</v>
       </c>
       <c r="I53" s="115"/>
-      <c r="J53" s="133" t="s">
+      <c r="J53" s="141" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5707,7 +5770,7 @@
         <v>64</v>
       </c>
       <c r="I54" s="115"/>
-      <c r="J54" s="134"/>
+      <c r="J54" s="142"/>
     </row>
     <row r="55" spans="1:10" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
@@ -7000,15 +7063,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I21:I35"/>
+    <mergeCell ref="H20:H35"/>
+    <mergeCell ref="J20:J35"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="E20:E35"/>
+    <mergeCell ref="F20:F35"/>
+    <mergeCell ref="G20:G35"/>
     <mergeCell ref="J12:J15"/>
     <mergeCell ref="C12:C19"/>
     <mergeCell ref="B12:B19"/>
@@ -7022,16 +7086,15 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I21:I35"/>
-    <mergeCell ref="H20:H35"/>
-    <mergeCell ref="J20:J35"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="E20:E35"/>
-    <mergeCell ref="F20:F35"/>
-    <mergeCell ref="G20:G35"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7298,13 +7361,13 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" s="13" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="151" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -7328,9 +7391,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="142"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="148"/>
+      <c r="A12" s="146"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="112" t="s">
         <v>96</v>
       </c>
@@ -7352,9 +7415,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="148"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="152"/>
       <c r="D13" s="112" t="s">
         <v>99</v>
       </c>
@@ -7376,9 +7439,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="148"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="152"/>
       <c r="D14" s="14" t="s">
         <v>100</v>
       </c>
@@ -7400,9 +7463,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="148"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="152"/>
       <c r="D15" s="14" t="s">
         <v>103</v>
       </c>
@@ -7424,9 +7487,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="142"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="148"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="152"/>
       <c r="D16" s="14" t="s">
         <v>104</v>
       </c>
@@ -7448,9 +7511,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="143"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="149"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="153"/>
       <c r="D17" s="14" t="s">
         <v>105</v>
       </c>
@@ -7472,26 +7535,26 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150" t="s">
+      <c r="A18" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="134" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="138" t="s">
+      <c r="F18" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="138"/>
-      <c r="H18" s="130" t="s">
+      <c r="G18" s="132"/>
+      <c r="H18" s="134" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="115" t="b">
@@ -7502,42 +7565,42 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="130"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="130"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="134"/>
       <c r="I19" s="115" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="131"/>
     </row>
     <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="150" t="s">
+      <c r="A20" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="134" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="130" t="s">
+      <c r="E20" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130" t="s">
+      <c r="G20" s="134"/>
+      <c r="H20" s="134" t="s">
         <v>112</v>
       </c>
       <c r="I20" s="115" t="s">
@@ -7548,215 +7611,215 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="130"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="129" t="s">
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="140" t="s">
         <v>116</v>
       </c>
       <c r="J21" s="131"/>
     </row>
     <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="130"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="129"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="140"/>
       <c r="J22" s="131"/>
     </row>
     <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="130"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="129"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="140"/>
       <c r="J23" s="131"/>
     </row>
     <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="130"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="129"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="140"/>
       <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="130"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="129"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="140"/>
       <c r="J25" s="131"/>
     </row>
     <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="130"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="129"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="140"/>
       <c r="J26" s="131"/>
     </row>
     <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="130"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="129"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="140"/>
       <c r="J27" s="131"/>
     </row>
     <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="150"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="130"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="129"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="140"/>
       <c r="J28" s="131"/>
     </row>
     <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="150"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="130"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="129"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="140"/>
       <c r="J29" s="131"/>
     </row>
     <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="150"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="130"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="129"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="140"/>
       <c r="J30" s="131"/>
     </row>
     <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="150"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="130"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="129"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="140"/>
       <c r="J31" s="131"/>
     </row>
     <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="150"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="130"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="129"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="140"/>
       <c r="J32" s="131"/>
     </row>
     <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="130"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="129"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="140"/>
       <c r="J33" s="131"/>
     </row>
     <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="150"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="130"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="129"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="140"/>
       <c r="J34" s="131"/>
     </row>
     <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="150"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="130"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="129"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="140"/>
       <c r="J35" s="131"/>
     </row>
     <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8996,7 +9059,7 @@
         <v>66</v>
       </c>
       <c r="I83" s="115"/>
-      <c r="J83" s="133" t="s">
+      <c r="J83" s="141" t="s">
         <v>67</v>
       </c>
     </row>
@@ -9022,7 +9085,7 @@
         <v>64</v>
       </c>
       <c r="I84" s="115"/>
-      <c r="J84" s="134"/>
+      <c r="J84" s="142"/>
     </row>
     <row r="85" spans="1:10" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
@@ -10315,28 +10378,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="H20:H35"/>
-    <mergeCell ref="J20:J35"/>
-    <mergeCell ref="I21:I35"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="E20:E35"/>
-    <mergeCell ref="F20:F35"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="G20:G35"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="E20:E35"/>
+    <mergeCell ref="F20:F35"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H20:H35"/>
+    <mergeCell ref="J20:J35"/>
+    <mergeCell ref="I21:I35"/>
+    <mergeCell ref="J83:J84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10348,8 +10411,8 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10357,7 +10420,8 @@
     <col min="1" max="2" width="25.140625" style="73" customWidth="1"/>
     <col min="3" max="4" width="21.28515625" style="73" customWidth="1"/>
     <col min="5" max="5" width="25.140625" style="73" customWidth="1"/>
-    <col min="6" max="7" width="37.42578125" style="73" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="172" customWidth="1"/>
     <col min="8" max="9" width="21.28515625" style="73" customWidth="1"/>
     <col min="10" max="10" width="52" style="69" customWidth="1"/>
     <col min="11" max="16384" width="8.85546875" style="27"/>
@@ -10374,7 +10438,7 @@
         <v>53</v>
       </c>
       <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="G1" s="166"/>
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
     </row>
@@ -10397,7 +10461,7 @@
       <c r="F2" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="119" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="107" t="s">
@@ -10425,7 +10489,9 @@
       <c r="F3" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="167" t="s">
+        <v>704</v>
+      </c>
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
       <c r="J3" s="72"/>
@@ -10447,7 +10513,9 @@
       <c r="F4" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="112"/>
+      <c r="G4" s="129" t="s">
+        <v>65</v>
+      </c>
       <c r="H4" s="112" t="s">
         <v>66</v>
       </c>
@@ -10473,7 +10541,9 @@
       <c r="F5" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="110"/>
+      <c r="G5" s="130" t="s">
+        <v>700</v>
+      </c>
       <c r="H5" s="112" t="s">
         <v>64</v>
       </c>
@@ -10497,14 +10567,16 @@
       <c r="F6" s="112" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="112"/>
+      <c r="G6" s="172" t="s">
+        <v>157</v>
+      </c>
       <c r="H6" s="112" t="s">
         <v>88</v>
       </c>
       <c r="I6" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="J6" s="133" t="s">
+      <c r="J6" s="141" t="s">
         <v>298</v>
       </c>
     </row>
@@ -10525,14 +10597,16 @@
       <c r="F7" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="G7" s="112"/>
+      <c r="G7" s="129" t="s">
+        <v>705</v>
+      </c>
       <c r="H7" s="112" t="s">
         <v>302</v>
       </c>
       <c r="I7" s="112" t="s">
         <v>303</v>
       </c>
-      <c r="J7" s="134"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="111" t="s">
@@ -10551,7 +10625,9 @@
       <c r="F8" s="112" t="s">
         <v>304</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="129" t="s">
+        <v>706</v>
+      </c>
       <c r="H8" s="112" t="s">
         <v>81</v>
       </c>
@@ -10577,7 +10653,9 @@
       <c r="F9" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="G9" s="112"/>
+      <c r="G9" s="129" t="s">
+        <v>707</v>
+      </c>
       <c r="H9" s="112" t="s">
         <v>81</v>
       </c>
@@ -10603,7 +10681,9 @@
       <c r="F10" s="112" t="s">
         <v>312</v>
       </c>
-      <c r="G10" s="112"/>
+      <c r="G10" s="129" t="s">
+        <v>708</v>
+      </c>
       <c r="H10" s="112" t="s">
         <v>81</v>
       </c>
@@ -10629,7 +10709,9 @@
       <c r="F11" s="112" t="s">
         <v>315</v>
       </c>
-      <c r="G11" s="112"/>
+      <c r="G11" s="129" t="s">
+        <v>709</v>
+      </c>
       <c r="H11" s="112" t="s">
         <v>71</v>
       </c>
@@ -10641,26 +10723,28 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="160" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="130" t="s">
+      <c r="A12" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="134" t="s">
         <v>318</v>
       </c>
-      <c r="F12" s="130" t="s">
+      <c r="F12" s="134" t="s">
         <v>319</v>
       </c>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130" t="s">
+      <c r="G12" s="139" t="s">
+        <v>319</v>
+      </c>
+      <c r="H12" s="134" t="s">
         <v>320</v>
       </c>
       <c r="I12" s="112" t="s">
@@ -10671,14 +10755,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="134"/>
       <c r="I13" s="112" t="s">
         <v>323</v>
       </c>
@@ -10687,14 +10771,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="134"/>
       <c r="I14" s="112" t="s">
         <v>324</v>
       </c>
@@ -10703,14 +10787,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="134"/>
       <c r="I15" s="112" t="s">
         <v>325</v>
       </c>
@@ -10719,66 +10803,68 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="156" t="s">
         <v>326</v>
       </c>
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="159" t="s">
         <v>328</v>
       </c>
       <c r="D16" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="E16" s="147" t="s">
+      <c r="E16" s="151" t="s">
         <v>326</v>
       </c>
-      <c r="F16" s="147" t="s">
+      <c r="F16" s="151" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147" t="s">
+      <c r="G16" s="168" t="s">
+        <v>330</v>
+      </c>
+      <c r="H16" s="151" t="s">
         <v>331</v>
       </c>
       <c r="I16" s="112" t="s">
         <v>332</v>
       </c>
-      <c r="J16" s="133" t="s">
+      <c r="J16" s="141" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="158"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="153"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="152"/>
       <c r="I17" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="J17" s="156"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="154"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="153"/>
       <c r="I18" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="J18" s="134"/>
+      <c r="J18" s="142"/>
     </row>
     <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="111" t="s">
@@ -10797,7 +10883,9 @@
       <c r="F19" s="112" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="112"/>
+      <c r="G19" s="129" t="s">
+        <v>710</v>
+      </c>
       <c r="H19" s="112" t="s">
         <v>342</v>
       </c>
@@ -10825,7 +10913,9 @@
       <c r="F20" s="112" t="s">
         <v>349</v>
       </c>
-      <c r="G20" s="112"/>
+      <c r="G20" s="129" t="s">
+        <v>711</v>
+      </c>
       <c r="H20" s="112" t="s">
         <v>71</v>
       </c>
@@ -10853,7 +10943,9 @@
       <c r="F21" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="112"/>
+      <c r="G21" s="129" t="s">
+        <v>712</v>
+      </c>
       <c r="H21" s="112" t="s">
         <v>101</v>
       </c>
@@ -10881,7 +10973,9 @@
       <c r="F22" s="112" t="s">
         <v>358</v>
       </c>
-      <c r="G22" s="112"/>
+      <c r="G22" s="129" t="s">
+        <v>358</v>
+      </c>
       <c r="H22" s="112" t="s">
         <v>235</v>
       </c>
@@ -10907,7 +11001,9 @@
       <c r="F23" s="112" t="s">
         <v>363</v>
       </c>
-      <c r="G23" s="112"/>
+      <c r="G23" s="129" t="s">
+        <v>363</v>
+      </c>
       <c r="H23" s="112" t="s">
         <v>235</v>
       </c>
@@ -10933,7 +11029,7 @@
       <c r="F24" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="112"/>
+      <c r="G24" s="129"/>
       <c r="H24" s="112" t="s">
         <v>101</v>
       </c>
@@ -10961,14 +11057,14 @@
       <c r="F25" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="112"/>
+      <c r="G25" s="129"/>
       <c r="H25" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I25" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="133" t="s">
+      <c r="J25" s="141" t="s">
         <v>370</v>
       </c>
     </row>
@@ -10989,14 +11085,14 @@
       <c r="F26" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="112"/>
+      <c r="G26" s="129"/>
       <c r="H26" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I26" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="156"/>
+      <c r="J26" s="155"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="91" t="s">
@@ -11015,14 +11111,14 @@
       <c r="F27" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="112"/>
+      <c r="G27" s="129"/>
       <c r="H27" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I27" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="156"/>
+      <c r="J27" s="155"/>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="91" t="s">
@@ -11041,14 +11137,14 @@
       <c r="F28" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="112"/>
+      <c r="G28" s="129"/>
       <c r="H28" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I28" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="156"/>
+      <c r="J28" s="155"/>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="91" t="s">
@@ -11067,14 +11163,14 @@
       <c r="F29" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="112"/>
+      <c r="G29" s="129"/>
       <c r="H29" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I29" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="156"/>
+      <c r="J29" s="155"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="113" t="s">
@@ -11093,14 +11189,14 @@
       <c r="F30" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="112"/>
+      <c r="G30" s="129"/>
       <c r="H30" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I30" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="134"/>
+      <c r="J30" s="142"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="113" t="s">
@@ -11119,7 +11215,7 @@
       <c r="F31" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="112"/>
+      <c r="G31" s="129"/>
       <c r="H31" s="112" t="s">
         <v>101</v>
       </c>
@@ -11147,7 +11243,7 @@
       <c r="F32" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="112"/>
+      <c r="G32" s="129"/>
       <c r="H32" s="112" t="s">
         <v>101</v>
       </c>
@@ -11175,7 +11271,7 @@
       <c r="F33" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="112"/>
+      <c r="G33" s="129"/>
       <c r="H33" s="112" t="s">
         <v>101</v>
       </c>
@@ -11203,7 +11299,7 @@
       <c r="F34" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="112"/>
+      <c r="G34" s="129"/>
       <c r="H34" s="112" t="s">
         <v>101</v>
       </c>
@@ -11231,7 +11327,7 @@
       <c r="F35" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="78"/>
+      <c r="G35" s="171"/>
       <c r="H35" s="78" t="s">
         <v>101</v>
       </c>
@@ -11260,7 +11356,9 @@
       <c r="F37" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="173" t="s">
+        <v>704</v>
+      </c>
       <c r="H37" s="83" t="s">
         <v>101</v>
       </c>
@@ -11288,7 +11386,9 @@
       <c r="F38" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="112"/>
+      <c r="G38" s="129" t="s">
+        <v>65</v>
+      </c>
       <c r="H38" s="112" t="s">
         <v>66</v>
       </c>
@@ -11314,7 +11414,9 @@
       <c r="F39" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="110"/>
+      <c r="G39" s="130" t="s">
+        <v>700</v>
+      </c>
       <c r="H39" s="112" t="s">
         <v>64</v>
       </c>
@@ -11338,7 +11440,9 @@
       <c r="F40" s="112" t="s">
         <v>315</v>
       </c>
-      <c r="G40" s="112"/>
+      <c r="G40" s="129" t="s">
+        <v>709</v>
+      </c>
       <c r="H40" s="112" t="s">
         <v>71</v>
       </c>
@@ -11366,7 +11470,9 @@
       <c r="F41" s="112" t="s">
         <v>341</v>
       </c>
-      <c r="G41" s="112"/>
+      <c r="G41" s="129" t="s">
+        <v>710</v>
+      </c>
       <c r="H41" s="112" t="s">
         <v>342</v>
       </c>
@@ -11394,7 +11500,9 @@
       <c r="F42" s="112" t="s">
         <v>349</v>
       </c>
-      <c r="G42" s="112"/>
+      <c r="G42" s="129" t="s">
+        <v>711</v>
+      </c>
       <c r="H42" s="112" t="s">
         <v>71</v>
       </c>
@@ -11422,7 +11530,7 @@
       <c r="F43" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="112"/>
+      <c r="G43" s="129"/>
       <c r="H43" s="112" t="s">
         <v>101</v>
       </c>
@@ -11450,7 +11558,7 @@
       <c r="F44" s="112" t="s">
         <v>358</v>
       </c>
-      <c r="G44" s="112"/>
+      <c r="G44" s="129"/>
       <c r="H44" s="112" t="s">
         <v>235</v>
       </c>
@@ -11476,7 +11584,7 @@
       <c r="F45" s="112" t="s">
         <v>363</v>
       </c>
-      <c r="G45" s="112"/>
+      <c r="G45" s="129"/>
       <c r="H45" s="112" t="s">
         <v>235</v>
       </c>
@@ -11486,66 +11594,66 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="157" t="s">
+      <c r="A46" s="156" t="s">
         <v>326</v>
       </c>
-      <c r="B46" s="147" t="s">
+      <c r="B46" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="C46" s="152" t="s">
+      <c r="C46" s="159" t="s">
         <v>328</v>
       </c>
       <c r="D46" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="E46" s="147" t="s">
+      <c r="E46" s="151" t="s">
         <v>326</v>
       </c>
-      <c r="F46" s="147" t="s">
+      <c r="F46" s="151" t="s">
         <v>330</v>
       </c>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147" t="s">
+      <c r="G46" s="168"/>
+      <c r="H46" s="151" t="s">
         <v>331</v>
       </c>
       <c r="I46" s="112" t="s">
         <v>332</v>
       </c>
-      <c r="J46" s="133" t="s">
+      <c r="J46" s="141" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="158"/>
-      <c r="B47" s="148"/>
-      <c r="C47" s="153"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="160"/>
       <c r="D47" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="169"/>
+      <c r="H47" s="152"/>
       <c r="I47" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="J47" s="156"/>
+      <c r="J47" s="155"/>
     </row>
     <row r="48" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="159"/>
-      <c r="B48" s="149"/>
-      <c r="C48" s="154"/>
+      <c r="A48" s="158"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="161"/>
       <c r="D48" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="153"/>
       <c r="I48" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="J48" s="134"/>
+      <c r="J48" s="142"/>
     </row>
     <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="87" t="s">
@@ -11564,7 +11672,7 @@
       <c r="F49" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="112"/>
+      <c r="G49" s="129"/>
       <c r="H49" s="112" t="s">
         <v>101</v>
       </c>
@@ -11592,7 +11700,7 @@
       <c r="F50" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="112"/>
+      <c r="G50" s="129"/>
       <c r="H50" s="112" t="s">
         <v>101</v>
       </c>
@@ -11620,7 +11728,7 @@
       <c r="F51" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="112"/>
+      <c r="G51" s="129"/>
       <c r="H51" s="112" t="s">
         <v>101</v>
       </c>
@@ -11646,7 +11754,7 @@
       <c r="F52" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="78"/>
+      <c r="G52" s="171"/>
       <c r="H52" s="78" t="s">
         <v>101</v>
       </c>
@@ -11673,12 +11781,12 @@
         <v>326</v>
       </c>
       <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
+      <c r="G54" s="174"/>
       <c r="H54" s="76" t="s">
         <v>112</v>
       </c>
       <c r="I54" s="83"/>
-      <c r="J54" s="155" t="s">
+      <c r="J54" s="154" t="s">
         <v>333</v>
       </c>
     </row>
@@ -11699,14 +11807,14 @@
       <c r="F55" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G55" s="112"/>
+      <c r="G55" s="129"/>
       <c r="H55" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I55" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J55" s="156"/>
+      <c r="J55" s="155"/>
     </row>
     <row r="56" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="84" t="s">
@@ -11725,14 +11833,14 @@
       <c r="F56" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="112"/>
+      <c r="G56" s="129"/>
       <c r="H56" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I56" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="J56" s="134"/>
+      <c r="J56" s="142"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="84" t="s">
@@ -11751,7 +11859,7 @@
       <c r="F57" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="112"/>
+      <c r="G57" s="129"/>
       <c r="H57" s="112" t="s">
         <v>101</v>
       </c>
@@ -11779,7 +11887,7 @@
       <c r="F58" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G58" s="112"/>
+      <c r="G58" s="129"/>
       <c r="H58" s="112" t="s">
         <v>101</v>
       </c>
@@ -11807,7 +11915,7 @@
       <c r="F59" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G59" s="112"/>
+      <c r="G59" s="129"/>
       <c r="H59" s="112" t="s">
         <v>101</v>
       </c>
@@ -11835,7 +11943,7 @@
       <c r="F60" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G60" s="112"/>
+      <c r="G60" s="129"/>
       <c r="H60" s="112" t="s">
         <v>101</v>
       </c>
@@ -11863,7 +11971,7 @@
       <c r="F61" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="112"/>
+      <c r="G61" s="129"/>
       <c r="H61" s="112" t="s">
         <v>101</v>
       </c>
@@ -11891,7 +11999,7 @@
       <c r="F62" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G62" s="112"/>
+      <c r="G62" s="129"/>
       <c r="H62" s="112" t="s">
         <v>101</v>
       </c>
@@ -11919,7 +12027,7 @@
       <c r="F63" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="G63" s="78"/>
+      <c r="G63" s="171"/>
       <c r="H63" s="78" t="s">
         <v>101</v>
       </c>
@@ -11946,10 +12054,10 @@
       <c r="F65" s="76" t="s">
         <v>412</v>
       </c>
-      <c r="G65" s="76"/>
+      <c r="G65" s="174"/>
       <c r="H65" s="76"/>
       <c r="I65" s="76"/>
-      <c r="J65" s="155" t="s">
+      <c r="J65" s="154" t="s">
         <v>351</v>
       </c>
     </row>
@@ -11970,12 +12078,12 @@
       <c r="F66" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G66" s="23"/>
+      <c r="G66" s="128"/>
       <c r="H66" s="112" t="s">
         <v>64</v>
       </c>
       <c r="I66" s="112"/>
-      <c r="J66" s="156"/>
+      <c r="J66" s="155"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
@@ -11994,12 +12102,12 @@
       <c r="F67" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="G67" s="112"/>
+      <c r="G67" s="129"/>
       <c r="H67" s="112" t="s">
         <v>413</v>
       </c>
       <c r="I67" s="112"/>
-      <c r="J67" s="134"/>
+      <c r="J67" s="142"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
@@ -12018,7 +12126,7 @@
       <c r="F68" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G68" s="112"/>
+      <c r="G68" s="129"/>
       <c r="H68" s="112" t="s">
         <v>101</v>
       </c>
@@ -12046,7 +12154,7 @@
       <c r="F69" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G69" s="112"/>
+      <c r="G69" s="129"/>
       <c r="H69" s="112" t="s">
         <v>101</v>
       </c>
@@ -12074,7 +12182,7 @@
       <c r="F70" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="112"/>
+      <c r="G70" s="129"/>
       <c r="H70" s="112" t="s">
         <v>101</v>
       </c>
@@ -12102,7 +12210,7 @@
       <c r="F71" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="112"/>
+      <c r="G71" s="129"/>
       <c r="H71" s="112" t="s">
         <v>101</v>
       </c>
@@ -12130,7 +12238,7 @@
       <c r="F72" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="112"/>
+      <c r="G72" s="129"/>
       <c r="H72" s="112" t="s">
         <v>101</v>
       </c>
@@ -12158,7 +12266,7 @@
       <c r="F73" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="112"/>
+      <c r="G73" s="129"/>
       <c r="H73" s="112" t="s">
         <v>101</v>
       </c>
@@ -12186,7 +12294,7 @@
       <c r="F74" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G74" s="112"/>
+      <c r="G74" s="129"/>
       <c r="H74" s="112" t="s">
         <v>101</v>
       </c>
@@ -12216,7 +12324,7 @@
       <c r="F75" s="112" t="s">
         <v>415</v>
       </c>
-      <c r="G75" s="112"/>
+      <c r="G75" s="129"/>
       <c r="H75" s="74" t="s">
         <v>75</v>
       </c>
@@ -12244,7 +12352,7 @@
       <c r="F76" s="112" t="s">
         <v>417</v>
       </c>
-      <c r="G76" s="112"/>
+      <c r="G76" s="129"/>
       <c r="H76" s="112" t="s">
         <v>71</v>
       </c>
@@ -12274,7 +12382,7 @@
       <c r="F77" s="112" t="s">
         <v>345</v>
       </c>
-      <c r="G77" s="112"/>
+      <c r="G77" s="129"/>
       <c r="H77" s="112" t="s">
         <v>71</v>
       </c>
@@ -12304,7 +12412,7 @@
       <c r="F78" s="112" t="s">
         <v>422</v>
       </c>
-      <c r="G78" s="112"/>
+      <c r="G78" s="129"/>
       <c r="H78" s="112" t="s">
         <v>423</v>
       </c>
@@ -12332,7 +12440,7 @@
       <c r="F79" s="112" t="s">
         <v>424</v>
       </c>
-      <c r="G79" s="112"/>
+      <c r="G79" s="129"/>
       <c r="H79" s="74" t="s">
         <v>75</v>
       </c>
@@ -12360,7 +12468,7 @@
       <c r="F80" s="112" t="s">
         <v>426</v>
       </c>
-      <c r="G80" s="112"/>
+      <c r="G80" s="129"/>
       <c r="H80" s="112" t="s">
         <v>427</v>
       </c>
@@ -12388,7 +12496,7 @@
       <c r="F81" s="112" t="s">
         <v>429</v>
       </c>
-      <c r="G81" s="112"/>
+      <c r="G81" s="129"/>
       <c r="H81" s="112" t="s">
         <v>423</v>
       </c>
@@ -12416,7 +12524,7 @@
       <c r="F82" s="112" t="s">
         <v>431</v>
       </c>
-      <c r="G82" s="112"/>
+      <c r="G82" s="129"/>
       <c r="H82" s="74" t="s">
         <v>75</v>
       </c>
@@ -12444,7 +12552,7 @@
       <c r="F83" s="112" t="s">
         <v>433</v>
       </c>
-      <c r="G83" s="112"/>
+      <c r="G83" s="129"/>
       <c r="H83" s="74" t="s">
         <v>75</v>
       </c>
@@ -12472,7 +12580,7 @@
       <c r="F84" s="112" t="s">
         <v>435</v>
       </c>
-      <c r="G84" s="112"/>
+      <c r="G84" s="129"/>
       <c r="H84" s="74" t="s">
         <v>75</v>
       </c>
@@ -12500,7 +12608,7 @@
       <c r="F85" s="78" t="s">
         <v>437</v>
       </c>
-      <c r="G85" s="78"/>
+      <c r="G85" s="171"/>
       <c r="H85" s="79" t="s">
         <v>75</v>
       </c>
@@ -12527,12 +12635,12 @@
       <c r="F87" s="117" t="s">
         <v>341</v>
       </c>
-      <c r="G87" s="117"/>
+      <c r="G87" s="175"/>
       <c r="H87" s="117" t="s">
         <v>342</v>
       </c>
       <c r="I87" s="117"/>
-      <c r="J87" s="155" t="s">
+      <c r="J87" s="154" t="s">
         <v>439</v>
       </c>
     </row>
@@ -12553,12 +12661,12 @@
       <c r="F88" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G88" s="23"/>
+      <c r="G88" s="128"/>
       <c r="H88" s="112" t="s">
         <v>64</v>
       </c>
       <c r="I88" s="112"/>
-      <c r="J88" s="156"/>
+      <c r="J88" s="155"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
@@ -12577,12 +12685,12 @@
       <c r="F89" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="G89" s="112"/>
+      <c r="G89" s="129"/>
       <c r="H89" s="112" t="s">
         <v>413</v>
       </c>
       <c r="I89" s="112"/>
-      <c r="J89" s="134"/>
+      <c r="J89" s="142"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
@@ -12601,7 +12709,7 @@
       <c r="F90" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G90" s="112"/>
+      <c r="G90" s="129"/>
       <c r="H90" s="112" t="s">
         <v>101</v>
       </c>
@@ -12629,7 +12737,7 @@
       <c r="F91" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G91" s="112"/>
+      <c r="G91" s="129"/>
       <c r="H91" s="112" t="s">
         <v>101</v>
       </c>
@@ -12657,7 +12765,7 @@
       <c r="F92" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="112"/>
+      <c r="G92" s="129"/>
       <c r="H92" s="112" t="s">
         <v>101</v>
       </c>
@@ -12685,7 +12793,7 @@
       <c r="F93" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G93" s="112"/>
+      <c r="G93" s="129"/>
       <c r="H93" s="112" t="s">
         <v>101</v>
       </c>
@@ -12713,7 +12821,7 @@
       <c r="F94" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G94" s="112"/>
+      <c r="G94" s="129"/>
       <c r="H94" s="112" t="s">
         <v>101</v>
       </c>
@@ -12741,7 +12849,7 @@
       <c r="F95" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G95" s="112"/>
+      <c r="G95" s="129"/>
       <c r="H95" s="112" t="s">
         <v>101</v>
       </c>
@@ -12771,7 +12879,7 @@
       <c r="F96" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G96" s="112"/>
+      <c r="G96" s="129"/>
       <c r="H96" s="112" t="s">
         <v>101</v>
       </c>
@@ -12799,7 +12907,7 @@
       <c r="F97" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G97" s="112"/>
+      <c r="G97" s="129"/>
       <c r="H97" s="112" t="s">
         <v>101</v>
       </c>
@@ -12829,7 +12937,7 @@
       <c r="F98" s="112" t="s">
         <v>447</v>
       </c>
-      <c r="G98" s="112"/>
+      <c r="G98" s="129"/>
       <c r="H98" s="112" t="s">
         <v>112</v>
       </c>
@@ -12859,7 +12967,7 @@
       <c r="F99" s="112" t="s">
         <v>450</v>
       </c>
-      <c r="G99" s="112"/>
+      <c r="G99" s="129"/>
       <c r="H99" s="112" t="s">
         <v>71</v>
       </c>
@@ -12889,7 +12997,7 @@
       <c r="F100" s="112" t="s">
         <v>452</v>
       </c>
-      <c r="G100" s="112"/>
+      <c r="G100" s="129"/>
       <c r="H100" s="112" t="s">
         <v>183</v>
       </c>
@@ -12917,7 +13025,7 @@
       <c r="F101" s="112" t="s">
         <v>454</v>
       </c>
-      <c r="G101" s="112"/>
+      <c r="G101" s="129"/>
       <c r="H101" s="112" t="s">
         <v>71</v>
       </c>
@@ -12947,7 +13055,7 @@
       <c r="F102" s="112" t="s">
         <v>456</v>
       </c>
-      <c r="G102" s="112"/>
+      <c r="G102" s="129"/>
       <c r="H102" s="112" t="s">
         <v>71</v>
       </c>
@@ -12960,11 +13068,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G18"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J38:J39"/>
     <mergeCell ref="J54:J56"/>
@@ -12981,16 +13094,11 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="J46:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13110,7 +13218,7 @@
         <v>66</v>
       </c>
       <c r="I4" s="112"/>
-      <c r="J4" s="161" t="s">
+      <c r="J4" s="163" t="s">
         <v>67</v>
       </c>
     </row>
@@ -13136,7 +13244,7 @@
         <v>64</v>
       </c>
       <c r="I5" s="112"/>
-      <c r="J5" s="161"/>
+      <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="110" t="s">
@@ -13167,13 +13275,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="151" t="s">
         <v>462</v>
       </c>
       <c r="D7" s="112" t="s">
@@ -13192,14 +13300,14 @@
       <c r="I7" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="133" t="s">
+      <c r="J7" s="141" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="112" t="s">
         <v>465</v>
       </c>
@@ -13216,7 +13324,7 @@
       <c r="I8" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="134"/>
+      <c r="J8" s="142"/>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="110" t="s">
@@ -13355,66 +13463,66 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="156" t="s">
         <v>326</v>
       </c>
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="159" t="s">
         <v>328</v>
       </c>
       <c r="D14" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="E14" s="147" t="s">
+      <c r="E14" s="151" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="147" t="s">
+      <c r="F14" s="151" t="s">
         <v>330</v>
       </c>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147" t="s">
+      <c r="G14" s="151"/>
+      <c r="H14" s="151" t="s">
         <v>331</v>
       </c>
       <c r="I14" s="112" t="s">
         <v>332</v>
       </c>
-      <c r="J14" s="133" t="s">
+      <c r="J14" s="141" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="158"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="153"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="J15" s="156"/>
+      <c r="J15" s="155"/>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="159"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="154"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
       <c r="I16" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="J16" s="134"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
@@ -13612,7 +13720,7 @@
       <c r="I23" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="161" t="s">
+      <c r="J23" s="163" t="s">
         <v>500</v>
       </c>
     </row>
@@ -13642,7 +13750,7 @@
       <c r="I24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="161"/>
+      <c r="J24" s="163"/>
     </row>
     <row r="25" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="91" t="s">
@@ -13670,7 +13778,7 @@
       <c r="I25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="161"/>
+      <c r="J25" s="163"/>
     </row>
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
@@ -13981,7 +14089,7 @@
         <v>66</v>
       </c>
       <c r="I37" s="115"/>
-      <c r="J37" s="133" t="s">
+      <c r="J37" s="141" t="s">
         <v>67</v>
       </c>
     </row>
@@ -14007,7 +14115,7 @@
         <v>64</v>
       </c>
       <c r="I38" s="115"/>
-      <c r="J38" s="134"/>
+      <c r="J38" s="142"/>
     </row>
     <row r="39" spans="1:10" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
@@ -15332,7 +15440,7 @@
         <v>112</v>
       </c>
       <c r="I89" s="83"/>
-      <c r="J89" s="155" t="s">
+      <c r="J89" s="154" t="s">
         <v>333</v>
       </c>
     </row>
@@ -15360,7 +15468,7 @@
       <c r="I90" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J90" s="156"/>
+      <c r="J90" s="155"/>
     </row>
     <row r="91" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="84" t="s">
@@ -15386,7 +15494,7 @@
       <c r="I91" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="J91" s="134"/>
+      <c r="J91" s="142"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="84" t="s">
@@ -15605,7 +15713,7 @@
       <c r="G100" s="76"/>
       <c r="H100" s="76"/>
       <c r="I100" s="76"/>
-      <c r="J100" s="155" t="s">
+      <c r="J100" s="154" t="s">
         <v>351</v>
       </c>
     </row>
@@ -15631,7 +15739,7 @@
         <v>64</v>
       </c>
       <c r="I101" s="112"/>
-      <c r="J101" s="156"/>
+      <c r="J101" s="155"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="43" t="s">
@@ -15655,7 +15763,7 @@
         <v>413</v>
       </c>
       <c r="I102" s="112"/>
-      <c r="J102" s="134"/>
+      <c r="J102" s="142"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="43" t="s">
@@ -16199,7 +16307,7 @@
         <v>342</v>
       </c>
       <c r="I122" s="117"/>
-      <c r="J122" s="155" t="s">
+      <c r="J122" s="154" t="s">
         <v>439</v>
       </c>
     </row>
@@ -16225,7 +16333,7 @@
         <v>64</v>
       </c>
       <c r="I123" s="112"/>
-      <c r="J123" s="156"/>
+      <c r="J123" s="155"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="s">
@@ -16249,7 +16357,7 @@
         <v>413</v>
       </c>
       <c r="I124" s="112"/>
-      <c r="J124" s="134"/>
+      <c r="J124" s="142"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
@@ -17569,11 +17677,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="J100:J102"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
@@ -17587,6 +17690,11 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="G14:G16"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="J100:J102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17702,7 +17810,7 @@
         <v>66</v>
       </c>
       <c r="I4" s="112"/>
-      <c r="J4" s="161" t="s">
+      <c r="J4" s="163" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17728,7 +17836,7 @@
         <v>64</v>
       </c>
       <c r="I5" s="112"/>
-      <c r="J5" s="161"/>
+      <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -18224,7 +18332,7 @@
         <v>66</v>
       </c>
       <c r="I24" s="112"/>
-      <c r="J24" s="161" t="s">
+      <c r="J24" s="163" t="s">
         <v>67</v>
       </c>
     </row>
@@ -18250,7 +18358,7 @@
         <v>64</v>
       </c>
       <c r="I25" s="112"/>
-      <c r="J25" s="161"/>
+      <c r="J25" s="163"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
@@ -19831,18 +19939,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20063,18 +20171,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{036AF336-40C6-4505-8C13-1D576AA1C6AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E390EF-0789-4575-A79E-993C1583B70B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E390EF-0789-4575-A79E-993C1583B70B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{036AF336-40C6-4505-8C13-1D576AA1C6AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/App/Documents/Creatio-1C 2 _29.07.2020.xlsx
+++ b/App/Documents/Creatio-1C 2 _29.07.2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_VS\DatEx.1C\App\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\KustoAgro\VS\DatEx.1C\App\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CAC537-9A21-4974-8ADD-DDCEB4B8D4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9420" tabRatio="838" activeTab="3"/>
+    <workbookView xWindow="7980" yWindow="3610" windowWidth="24680" windowHeight="14430" tabRatio="838" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="7" r:id="rId1"/>
@@ -28,25 +29,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Мошук Вадим</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -79,12 +72,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Мошук Вадим</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0">
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -143,12 +136,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Мошук Вадим</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -181,13 +174,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Зорин Михаил Сергеевич</author>
     <author>Зорін Михайло Сергійович</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="1" shapeId="0">
+    <comment ref="A19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -235,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="1" shapeId="0">
+    <comment ref="A20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="1" shapeId="0">
+    <comment ref="A26" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -288,12 +281,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Зорін Михайло Сергійович</author>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2776,7 +2769,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3613,7 +3606,52 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3622,37 +3660,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3682,6 +3690,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3697,15 +3729,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3716,36 +3739,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4032,372 +4025,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A77"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="162.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="162.26953125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="102" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="103" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A7" s="103" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="56" x14ac:dyDescent="0.35">
       <c r="A8" s="103" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="103" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="103" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A12" s="103" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="103" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A15" s="103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A16" s="103" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="42" x14ac:dyDescent="0.35">
       <c r="A17" s="103" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="42" x14ac:dyDescent="0.35">
       <c r="A18" s="103" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A19" s="103" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A20" s="103" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="102" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="103" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="103" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A26" s="103" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="103" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="102" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A31" s="102" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="103" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="104"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="103" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="103" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="103" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="103" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="103" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="103" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A40" s="103" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A41" s="103" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="103" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="103" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A44" s="103" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A45" s="103" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="103" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="103" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A48" s="103" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="102" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A52" s="102" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="104"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="103" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="103" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="103" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="103" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="103" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="103" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A60" s="103" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A61" s="103" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="103" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="103" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A64" s="103" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A65" s="103" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="103" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="103" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A68" s="103" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="102" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A72" s="103" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="28" x14ac:dyDescent="0.35">
       <c r="A73" s="103" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="103" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="103" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="103" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="42" x14ac:dyDescent="0.35">
       <c r="A77" s="102" t="s">
         <v>51</v>
       </c>
@@ -4409,23 +4402,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="50.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>607</v>
       </c>
@@ -4439,7 +4432,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>687</v>
       </c>
@@ -4450,7 +4443,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>689</v>
       </c>
@@ -4461,7 +4454,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>610</v>
       </c>
@@ -4472,7 +4465,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
@@ -4483,7 +4476,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
@@ -4494,7 +4487,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>692</v>
       </c>
@@ -4505,7 +4498,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>619</v>
       </c>
@@ -4516,7 +4509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>141</v>
       </c>
@@ -4527,7 +4520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>694</v>
       </c>
@@ -4538,7 +4531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>142</v>
       </c>
@@ -4549,7 +4542,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>695</v>
       </c>
@@ -4560,7 +4553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>696</v>
       </c>
@@ -4571,7 +4564,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>676</v>
       </c>
@@ -4585,7 +4578,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>219</v>
       </c>
@@ -4601,7 +4594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4609,21 +4602,21 @@
       <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="27" customWidth="1"/>
     <col min="5" max="5" width="26" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.85546875" style="124" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.81640625" style="124" customWidth="1"/>
+    <col min="8" max="8" width="33.54296875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" style="28" customWidth="1"/>
     <col min="10" max="10" width="52" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>52</v>
       </c>
@@ -4638,7 +4631,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="107" t="s">
         <v>54</v>
       </c>
@@ -4670,7 +4663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="105" t="s">
         <v>61</v>
       </c>
@@ -4692,7 +4685,7 @@
       <c r="I3" s="106"/>
       <c r="J3" s="62"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>63</v>
       </c>
@@ -4716,11 +4709,11 @@
         <v>66</v>
       </c>
       <c r="I4" s="115"/>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="140" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>68</v>
       </c>
@@ -4744,57 +4737,57 @@
         <v>64</v>
       </c>
       <c r="I5" s="115"/>
-      <c r="J5" s="131"/>
-    </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133" t="s">
+      <c r="J5" s="140"/>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="139" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="H6" s="139" t="s">
         <v>75</v>
       </c>
       <c r="I6" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="131" t="s">
+      <c r="J6" s="140" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="134"/>
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="148"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="134"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="139"/>
       <c r="I7" s="115" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="131"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="140"/>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>55</v>
       </c>
@@ -4820,7 +4813,7 @@
       <c r="I8" s="115"/>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>82</v>
       </c>
@@ -4846,7 +4839,7 @@
       <c r="I9" s="115"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>86</v>
       </c>
@@ -4872,7 +4865,7 @@
       <c r="I10" s="115"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
         <v>91</v>
       </c>
@@ -4898,92 +4891,92 @@
       <c r="I11" s="115"/>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="137" t="s">
+    <row r="12" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="138" t="s">
+      <c r="E12" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="138" t="s">
+      <c r="F12" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="134" t="s">
+      <c r="H12" s="139" t="s">
         <v>75</v>
       </c>
       <c r="I12" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="131" t="s">
+      <c r="J12" s="140" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="134"/>
+    <row r="13" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="141"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="139"/>
       <c r="I13" s="115" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="131"/>
-    </row>
-    <row r="14" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134" t="s">
+      <c r="J13" s="140"/>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="141"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="138" t="s">
+      <c r="E14" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="138" t="s">
+      <c r="F14" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="139" t="s">
+      <c r="G14" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="134"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="131"/>
-    </row>
-    <row r="15" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="137"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="134"/>
+      <c r="J14" s="140"/>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="141"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="139"/>
       <c r="I15" s="115" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="131"/>
-    </row>
-    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="134"/>
+      <c r="J15" s="140"/>
+    </row>
+    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="141"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="14" t="s">
         <v>100</v>
       </c>
@@ -5004,10 +4997,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
-      <c r="B17" s="136"/>
-      <c r="C17" s="134"/>
+    <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="141"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="14" t="s">
         <v>103</v>
       </c>
@@ -5028,10 +5021,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="134"/>
+    <row r="18" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="141"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="14" t="s">
         <v>104</v>
       </c>
@@ -5052,10 +5045,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="137"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="134"/>
+    <row r="19" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="141"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
@@ -5076,251 +5069,251 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="13" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
+    <row r="20" spans="1:10" s="13" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="139" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="134" t="s">
+      <c r="E20" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="134" t="s">
+      <c r="F20" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="139" t="s">
+      <c r="G20" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="134" t="s">
+      <c r="H20" s="139" t="s">
         <v>112</v>
       </c>
       <c r="I20" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="131" t="s">
+      <c r="J20" s="140" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="137"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="134"/>
+    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="141"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="140" t="s">
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="131"/>
-    </row>
-    <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="137"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="134"/>
+      <c r="J21" s="140"/>
+    </row>
+    <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="141"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="131"/>
-    </row>
-    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="137"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="134"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="140"/>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="141"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="131"/>
-    </row>
-    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="137"/>
-      <c r="B24" s="136"/>
-      <c r="C24" s="134"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="140"/>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="141"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="139"/>
       <c r="D24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="131"/>
-    </row>
-    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="137"/>
-      <c r="B25" s="136"/>
-      <c r="C25" s="134"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="140"/>
+    </row>
+    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="141"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="131"/>
-    </row>
-    <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="137"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="134"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="140"/>
+    </row>
+    <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="141"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="139"/>
       <c r="D26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="131"/>
-    </row>
-    <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="137"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="134"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="140"/>
+    </row>
+    <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="141"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="139"/>
       <c r="D27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="131"/>
-    </row>
-    <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="137"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="134"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="140"/>
+    </row>
+    <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="141"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="131"/>
-    </row>
-    <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="137"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="134"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="140"/>
+    </row>
+    <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="141"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="139"/>
       <c r="D29" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="131"/>
-    </row>
-    <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="137"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="134"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="140"/>
+    </row>
+    <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="141"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="139"/>
       <c r="D30" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="131"/>
-    </row>
-    <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="137"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="134"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="140"/>
+    </row>
+    <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="141"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="139"/>
       <c r="D31" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="131"/>
-    </row>
-    <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="137"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="134"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="140"/>
+    </row>
+    <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="141"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="139"/>
       <c r="D32" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="131"/>
-    </row>
-    <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="134"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="140"/>
+    </row>
+    <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="141"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="131"/>
-    </row>
-    <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="137"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="134"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="140"/>
+    </row>
+    <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="141"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="139"/>
       <c r="D34" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="131"/>
-    </row>
-    <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="137"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="134"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="140"/>
+    </row>
+    <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="141"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="139"/>
       <c r="D35" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="131"/>
-    </row>
-    <row r="36" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="140"/>
+    </row>
+    <row r="36" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="42" t="s">
         <v>131</v>
       </c>
@@ -5350,7 +5343,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="s">
         <v>134</v>
       </c>
@@ -5378,7 +5371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="s">
         <v>138</v>
       </c>
@@ -5406,7 +5399,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="s">
         <v>140</v>
       </c>
@@ -5430,7 +5423,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="42" t="s">
         <v>141</v>
       </c>
@@ -5454,7 +5447,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="54" t="s">
         <v>142</v>
       </c>
@@ -5478,8 +5471,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
         <v>143</v>
       </c>
@@ -5505,7 +5498,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="43" t="s">
         <v>63</v>
       </c>
@@ -5533,7 +5526,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="43" t="s">
         <v>55</v>
       </c>
@@ -5561,7 +5554,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="43" t="s">
         <v>147</v>
       </c>
@@ -5589,7 +5582,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="43" t="s">
         <v>150</v>
       </c>
@@ -5617,7 +5610,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="43" t="s">
         <v>152</v>
       </c>
@@ -5645,7 +5638,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="43" t="s">
         <v>154</v>
       </c>
@@ -5673,7 +5666,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="44" t="s">
         <v>156</v>
       </c>
@@ -5701,8 +5694,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="29" t="s">
         <v>158</v>
       </c>
@@ -5722,7 +5715,7 @@
       <c r="I52" s="32"/>
       <c r="J52" s="62"/>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="33" t="s">
         <v>63</v>
       </c>
@@ -5744,11 +5737,11 @@
         <v>66</v>
       </c>
       <c r="I53" s="115"/>
-      <c r="J53" s="141" t="s">
+      <c r="J53" s="142" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="33" t="s">
         <v>68</v>
       </c>
@@ -5770,9 +5763,9 @@
         <v>64</v>
       </c>
       <c r="I54" s="115"/>
-      <c r="J54" s="142"/>
-    </row>
-    <row r="55" spans="1:10" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="J54" s="143"/>
+    </row>
+    <row r="55" spans="1:10" s="13" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
         <v>161</v>
       </c>
@@ -5798,7 +5791,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="33" t="s">
         <v>167</v>
       </c>
@@ -5822,7 +5815,7 @@
       <c r="I56" s="115"/>
       <c r="J56" s="35"/>
     </row>
-    <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57" s="33" t="s">
         <v>93</v>
       </c>
@@ -5848,7 +5841,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
         <v>101</v>
       </c>
@@ -5876,7 +5869,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="33" t="s">
         <v>178</v>
       </c>
@@ -5904,7 +5897,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="33" t="s">
         <v>147</v>
       </c>
@@ -5932,7 +5925,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="33" t="s">
         <v>150</v>
       </c>
@@ -5960,7 +5953,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="33" t="s">
         <v>152</v>
       </c>
@@ -5988,7 +5981,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="33" t="s">
         <v>154</v>
       </c>
@@ -6016,7 +6009,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
         <v>181</v>
       </c>
@@ -6044,7 +6037,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="33" t="s">
         <v>184</v>
       </c>
@@ -6072,7 +6065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="33" t="s">
         <v>186</v>
       </c>
@@ -6100,7 +6093,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="36" t="s">
         <v>188</v>
       </c>
@@ -6128,8 +6121,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="29" t="s">
         <v>171</v>
       </c>
@@ -6149,7 +6142,7 @@
       <c r="I69" s="32"/>
       <c r="J69" s="62"/>
     </row>
-    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="47" t="s">
         <v>63</v>
       </c>
@@ -6175,7 +6168,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="47" t="s">
         <v>55</v>
       </c>
@@ -6201,7 +6194,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="34" t="s">
         <v>101</v>
       </c>
@@ -6231,7 +6224,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="47" t="s">
         <v>156</v>
       </c>
@@ -6259,7 +6252,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="47" t="s">
         <v>147</v>
       </c>
@@ -6287,7 +6280,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="47" t="s">
         <v>150</v>
       </c>
@@ -6315,7 +6308,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="47" t="s">
         <v>152</v>
       </c>
@@ -6343,7 +6336,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="47" t="s">
         <v>154</v>
       </c>
@@ -6371,7 +6364,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="47" t="s">
         <v>197</v>
       </c>
@@ -6399,7 +6392,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="47" t="s">
         <v>199</v>
       </c>
@@ -6427,7 +6420,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="47" t="s">
         <v>201</v>
       </c>
@@ -6455,7 +6448,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="47" t="s">
         <v>203</v>
       </c>
@@ -6483,7 +6476,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="48" t="s">
         <v>181</v>
       </c>
@@ -6511,8 +6504,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="84" spans="1:10" ht="232" x14ac:dyDescent="0.35">
       <c r="A84" s="29" t="s">
         <v>205</v>
       </c>
@@ -6538,7 +6531,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="47" t="s">
         <v>63</v>
       </c>
@@ -6566,7 +6559,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="47" t="s">
         <v>147</v>
       </c>
@@ -6594,7 +6587,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="47" t="s">
         <v>55</v>
       </c>
@@ -6622,7 +6615,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="47" t="s">
         <v>156</v>
       </c>
@@ -6650,7 +6643,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="47" t="s">
         <v>210</v>
       </c>
@@ -6678,7 +6671,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="47" t="s">
         <v>150</v>
       </c>
@@ -6706,7 +6699,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="47" t="s">
         <v>152</v>
       </c>
@@ -6734,7 +6727,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="47" t="s">
         <v>154</v>
       </c>
@@ -6762,7 +6755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="48" t="s">
         <v>181</v>
       </c>
@@ -6790,8 +6783,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="95" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A95" s="57" t="s">
         <v>212</v>
       </c>
@@ -6817,7 +6810,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="47" t="s">
         <v>63</v>
       </c>
@@ -6845,7 +6838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="47" t="s">
         <v>147</v>
       </c>
@@ -6873,7 +6866,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="47" t="s">
         <v>150</v>
       </c>
@@ -6901,7 +6894,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="47" t="s">
         <v>152</v>
       </c>
@@ -6929,7 +6922,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="47" t="s">
         <v>154</v>
       </c>
@@ -6957,7 +6950,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
         <v>215</v>
       </c>
@@ -6985,7 +6978,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
         <v>216</v>
       </c>
@@ -7013,7 +7006,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="48" t="s">
         <v>181</v>
       </c>
@@ -7041,7 +7034,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="14" t="s">
         <v>219</v>
       </c>
@@ -7063,16 +7056,15 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I21:I35"/>
-    <mergeCell ref="H20:H35"/>
-    <mergeCell ref="J20:J35"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="E20:E35"/>
-    <mergeCell ref="F20:F35"/>
-    <mergeCell ref="G20:G35"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="J12:J15"/>
     <mergeCell ref="C12:C19"/>
     <mergeCell ref="B12:B19"/>
@@ -7086,15 +7078,16 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I21:I35"/>
+    <mergeCell ref="H20:H35"/>
+    <mergeCell ref="J20:J35"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="E20:E35"/>
+    <mergeCell ref="F20:F35"/>
+    <mergeCell ref="G20:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7102,7 +7095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7110,20 +7103,20 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="27" customWidth="1"/>
     <col min="5" max="5" width="26" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="28" customWidth="1"/>
+    <col min="6" max="7" width="21.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.54296875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" style="28" customWidth="1"/>
     <col min="10" max="10" width="52" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>52</v>
       </c>
@@ -7138,7 +7131,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="107" t="s">
         <v>54</v>
       </c>
@@ -7170,7 +7163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
         <v>61</v>
       </c>
@@ -7190,7 +7183,7 @@
       <c r="I3" s="53"/>
       <c r="J3" s="62"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>63</v>
       </c>
@@ -7212,11 +7205,11 @@
         <v>66</v>
       </c>
       <c r="I4" s="115"/>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="140" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>68</v>
       </c>
@@ -7238,9 +7231,9 @@
         <v>64</v>
       </c>
       <c r="I5" s="115"/>
-      <c r="J5" s="131"/>
-    </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="140"/>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>55</v>
       </c>
@@ -7264,7 +7257,7 @@
       <c r="I6" s="115"/>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>82</v>
       </c>
@@ -7288,7 +7281,7 @@
       <c r="I7" s="115"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>131</v>
       </c>
@@ -7312,7 +7305,7 @@
       <c r="I8" s="115"/>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
         <v>86</v>
       </c>
@@ -7336,7 +7329,7 @@
       <c r="I9" s="115"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
         <v>91</v>
       </c>
@@ -7360,14 +7353,14 @@
       <c r="I10" s="115"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="145" t="s">
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="156" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -7390,10 +7383,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="152"/>
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="151"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="157"/>
       <c r="D12" s="112" t="s">
         <v>96</v>
       </c>
@@ -7414,10 +7407,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="152"/>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="151"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="157"/>
       <c r="D13" s="112" t="s">
         <v>99</v>
       </c>
@@ -7438,10 +7431,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="152"/>
+    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="151"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="14" t="s">
         <v>100</v>
       </c>
@@ -7462,10 +7455,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="152"/>
+    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="151"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="157"/>
       <c r="D15" s="14" t="s">
         <v>103</v>
       </c>
@@ -7486,10 +7479,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="152"/>
+    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="151"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="157"/>
       <c r="D16" s="14" t="s">
         <v>104</v>
       </c>
@@ -7510,10 +7503,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="153"/>
+    <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="152"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="14" t="s">
         <v>105</v>
       </c>
@@ -7534,295 +7527,295 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="143" t="s">
+    <row r="18" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="139" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="132" t="s">
+      <c r="E18" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="132" t="s">
+      <c r="F18" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="132"/>
-      <c r="H18" s="134" t="s">
+      <c r="G18" s="147"/>
+      <c r="H18" s="139" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="131" t="s">
+      <c r="J18" s="140" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="143"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="134"/>
+    <row r="19" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="159"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="134"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="139"/>
       <c r="I19" s="115" t="b">
         <v>1</v>
       </c>
-      <c r="J19" s="131"/>
-    </row>
-    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="143" t="s">
+      <c r="J19" s="140"/>
+    </row>
+    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="139" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="134" t="s">
+      <c r="E20" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="134" t="s">
+      <c r="F20" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134" t="s">
+      <c r="G20" s="139"/>
+      <c r="H20" s="139" t="s">
         <v>112</v>
       </c>
       <c r="I20" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="131" t="s">
+      <c r="J20" s="140" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="134"/>
+    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="159"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="140" t="s">
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="131"/>
-    </row>
-    <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="134"/>
+      <c r="J21" s="140"/>
+    </row>
+    <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="159"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="131"/>
-    </row>
-    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="134"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="140"/>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="159"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="131"/>
-    </row>
-    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="134"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="140"/>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="159"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="139"/>
       <c r="D24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="131"/>
-    </row>
-    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="134"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="140"/>
+    </row>
+    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="159"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="131"/>
-    </row>
-    <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="134"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="140"/>
+    </row>
+    <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="159"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="139"/>
       <c r="D26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="131"/>
-    </row>
-    <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="143"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="134"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="140"/>
+    </row>
+    <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="159"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="139"/>
       <c r="D27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="131"/>
-    </row>
-    <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="134"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="140"/>
+    </row>
+    <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="131"/>
-    </row>
-    <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="143"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="134"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="140"/>
+    </row>
+    <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="159"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="139"/>
       <c r="D29" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="131"/>
-    </row>
-    <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="143"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="134"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="140"/>
+    </row>
+    <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="159"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="139"/>
       <c r="D30" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="131"/>
-    </row>
-    <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="143"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="134"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="140"/>
+    </row>
+    <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="159"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="139"/>
       <c r="D31" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="131"/>
-    </row>
-    <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="143"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="134"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="140"/>
+    </row>
+    <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="139"/>
       <c r="D32" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="131"/>
-    </row>
-    <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="143"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="134"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="140"/>
+    </row>
+    <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="159"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="131"/>
-    </row>
-    <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="134"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="140"/>
+    </row>
+    <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="159"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="139"/>
       <c r="D34" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="131"/>
-    </row>
-    <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="143"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="134"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="140"/>
+    </row>
+    <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="159"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="139"/>
       <c r="D35" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="131"/>
-    </row>
-    <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="140"/>
+    </row>
+    <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="42" t="s">
         <v>134</v>
       </c>
@@ -7850,7 +7843,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="s">
         <v>138</v>
       </c>
@@ -7878,7 +7871,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="s">
         <v>140</v>
       </c>
@@ -7906,7 +7899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="s">
         <v>141</v>
       </c>
@@ -7934,7 +7927,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="54" t="s">
         <v>142</v>
       </c>
@@ -7962,8 +7955,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
         <v>101</v>
       </c>
@@ -7987,7 +7980,7 @@
       <c r="I42" s="51"/>
       <c r="J42" s="62"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>101</v>
       </c>
@@ -8013,7 +8006,7 @@
       <c r="I43" s="115"/>
       <c r="J43" s="64"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
         <v>101</v>
       </c>
@@ -8039,7 +8032,7 @@
       <c r="I44" s="115"/>
       <c r="J44" s="64"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
         <v>101</v>
       </c>
@@ -8067,7 +8060,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
         <v>101</v>
       </c>
@@ -8095,7 +8088,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>101</v>
       </c>
@@ -8123,7 +8116,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
         <v>101</v>
       </c>
@@ -8151,7 +8144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
         <v>101</v>
       </c>
@@ -8179,7 +8172,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
         <v>101</v>
       </c>
@@ -8207,7 +8200,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
         <v>101</v>
       </c>
@@ -8235,7 +8228,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
         <v>101</v>
       </c>
@@ -8263,7 +8256,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
         <v>101</v>
       </c>
@@ -8291,7 +8284,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
         <v>101</v>
       </c>
@@ -8319,7 +8312,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
         <v>101</v>
       </c>
@@ -8347,7 +8340,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
         <v>101</v>
       </c>
@@ -8375,7 +8368,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
         <v>101</v>
       </c>
@@ -8403,7 +8396,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
         <v>101</v>
       </c>
@@ -8431,7 +8424,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
         <v>101</v>
       </c>
@@ -8459,7 +8452,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="34" t="s">
         <v>101</v>
       </c>
@@ -8487,7 +8480,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
         <v>101</v>
       </c>
@@ -8515,7 +8508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="34" t="s">
         <v>101</v>
       </c>
@@ -8543,7 +8536,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
         <v>101</v>
       </c>
@@ -8571,7 +8564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
         <v>101</v>
       </c>
@@ -8599,7 +8592,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
         <v>101</v>
       </c>
@@ -8627,7 +8620,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
         <v>101</v>
       </c>
@@ -8655,7 +8648,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
         <v>101</v>
       </c>
@@ -8683,7 +8676,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="34" t="s">
         <v>101</v>
       </c>
@@ -8711,7 +8704,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>101</v>
       </c>
@@ -8739,7 +8732,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>101</v>
       </c>
@@ -8767,7 +8760,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="61" t="s">
         <v>101</v>
       </c>
@@ -8795,8 +8788,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="29" t="s">
         <v>143</v>
       </c>
@@ -8822,7 +8815,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="43" t="s">
         <v>63</v>
       </c>
@@ -8850,7 +8843,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="43" t="s">
         <v>55</v>
       </c>
@@ -8878,7 +8871,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="43" t="s">
         <v>147</v>
       </c>
@@ -8906,7 +8899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="43" t="s">
         <v>150</v>
       </c>
@@ -8934,7 +8927,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="43" t="s">
         <v>152</v>
       </c>
@@ -8962,7 +8955,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="43" t="s">
         <v>154</v>
       </c>
@@ -8990,7 +8983,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="44" t="s">
         <v>156</v>
       </c>
@@ -9018,8 +9011,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="29" t="s">
         <v>158</v>
       </c>
@@ -9037,7 +9030,7 @@
       <c r="I82" s="32"/>
       <c r="J82" s="62"/>
     </row>
-    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
         <v>63</v>
       </c>
@@ -9059,11 +9052,11 @@
         <v>66</v>
       </c>
       <c r="I83" s="115"/>
-      <c r="J83" s="141" t="s">
+      <c r="J83" s="142" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="33" t="s">
         <v>68</v>
       </c>
@@ -9085,9 +9078,9 @@
         <v>64</v>
       </c>
       <c r="I84" s="115"/>
-      <c r="J84" s="142"/>
-    </row>
-    <row r="85" spans="1:10" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="J84" s="143"/>
+    </row>
+    <row r="85" spans="1:10" s="13" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
         <v>161</v>
       </c>
@@ -9113,7 +9106,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="33" t="s">
         <v>167</v>
       </c>
@@ -9137,7 +9130,7 @@
       <c r="I86" s="115"/>
       <c r="J86" s="35"/>
     </row>
-    <row r="87" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
         <v>93</v>
       </c>
@@ -9163,7 +9156,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A88" s="34" t="s">
         <v>101</v>
       </c>
@@ -9191,7 +9184,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
         <v>178</v>
       </c>
@@ -9219,7 +9212,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="33" t="s">
         <v>147</v>
       </c>
@@ -9247,7 +9240,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
         <v>150</v>
       </c>
@@ -9275,7 +9268,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
         <v>152</v>
       </c>
@@ -9303,7 +9296,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
         <v>154</v>
       </c>
@@ -9331,7 +9324,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="33" t="s">
         <v>181</v>
       </c>
@@ -9359,7 +9352,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="33" t="s">
         <v>184</v>
       </c>
@@ -9387,7 +9380,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="33" t="s">
         <v>186</v>
       </c>
@@ -9415,7 +9408,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="36" t="s">
         <v>188</v>
       </c>
@@ -9443,8 +9436,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="99" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="29" t="s">
         <v>171</v>
       </c>
@@ -9464,7 +9457,7 @@
       <c r="I99" s="32"/>
       <c r="J99" s="62"/>
     </row>
-    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="47" t="s">
         <v>63</v>
       </c>
@@ -9490,7 +9483,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
         <v>55</v>
       </c>
@@ -9516,7 +9509,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="34" t="s">
         <v>101</v>
       </c>
@@ -9546,7 +9539,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
         <v>156</v>
       </c>
@@ -9574,7 +9567,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
         <v>147</v>
       </c>
@@ -9602,7 +9595,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
         <v>150</v>
       </c>
@@ -9630,7 +9623,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="47" t="s">
         <v>152</v>
       </c>
@@ -9658,7 +9651,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="47" t="s">
         <v>154</v>
       </c>
@@ -9686,7 +9679,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="47" t="s">
         <v>197</v>
       </c>
@@ -9714,7 +9707,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="47" t="s">
         <v>199</v>
       </c>
@@ -9742,7 +9735,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="47" t="s">
         <v>201</v>
       </c>
@@ -9770,7 +9763,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="47" t="s">
         <v>203</v>
       </c>
@@ -9798,7 +9791,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="48" t="s">
         <v>181</v>
       </c>
@@ -9826,8 +9819,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="114" spans="1:10" ht="232" x14ac:dyDescent="0.35">
       <c r="A114" s="29" t="s">
         <v>205</v>
       </c>
@@ -9853,7 +9846,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="47" t="s">
         <v>63</v>
       </c>
@@ -9881,7 +9874,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="47" t="s">
         <v>147</v>
       </c>
@@ -9909,7 +9902,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="47" t="s">
         <v>55</v>
       </c>
@@ -9937,7 +9930,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="47" t="s">
         <v>156</v>
       </c>
@@ -9965,7 +9958,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="47" t="s">
         <v>210</v>
       </c>
@@ -9993,7 +9986,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="47" t="s">
         <v>150</v>
       </c>
@@ -10021,7 +10014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="47" t="s">
         <v>152</v>
       </c>
@@ -10049,7 +10042,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="47" t="s">
         <v>154</v>
       </c>
@@ -10077,7 +10070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="48" t="s">
         <v>181</v>
       </c>
@@ -10105,8 +10098,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="125" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A125" s="29" t="s">
         <v>212</v>
       </c>
@@ -10132,7 +10125,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="47" t="s">
         <v>63</v>
       </c>
@@ -10160,7 +10153,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="47" t="s">
         <v>147</v>
       </c>
@@ -10188,7 +10181,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="47" t="s">
         <v>150</v>
       </c>
@@ -10216,7 +10209,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="47" t="s">
         <v>152</v>
       </c>
@@ -10244,7 +10237,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="47" t="s">
         <v>154</v>
       </c>
@@ -10272,7 +10265,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="47" t="s">
         <v>215</v>
       </c>
@@ -10300,7 +10293,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="47" t="s">
         <v>216</v>
       </c>
@@ -10328,7 +10321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="48" t="s">
         <v>181</v>
       </c>
@@ -10356,7 +10349,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="14" t="s">
         <v>219</v>
       </c>
@@ -10378,28 +10371,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H20:H35"/>
+    <mergeCell ref="J20:J35"/>
+    <mergeCell ref="I21:I35"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="E20:E35"/>
+    <mergeCell ref="F20:F35"/>
+    <mergeCell ref="G20:G35"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G20:G35"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="E20:E35"/>
-    <mergeCell ref="F20:F35"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="H20:H35"/>
-    <mergeCell ref="J20:J35"/>
-    <mergeCell ref="I21:I35"/>
-    <mergeCell ref="J83:J84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10407,7 +10400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -10415,19 +10408,19 @@
       <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="25.140625" style="73" customWidth="1"/>
-    <col min="3" max="4" width="21.28515625" style="73" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="73" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="73" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="172" customWidth="1"/>
-    <col min="8" max="9" width="21.28515625" style="73" customWidth="1"/>
+    <col min="1" max="2" width="25.1796875" style="73" customWidth="1"/>
+    <col min="3" max="4" width="21.26953125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" style="73" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="37.453125" style="134" customWidth="1"/>
+    <col min="8" max="9" width="21.26953125" style="73" customWidth="1"/>
     <col min="10" max="10" width="52" style="69" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="11" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
         <v>52</v>
       </c>
@@ -10438,11 +10431,11 @@
         <v>53</v>
       </c>
       <c r="F1" s="68"/>
-      <c r="G1" s="166"/>
+      <c r="G1" s="131"/>
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
     </row>
-    <row r="2" spans="1:10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="107" t="s">
         <v>54</v>
       </c>
@@ -10474,7 +10467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A3" s="70" t="s">
         <v>290</v>
       </c>
@@ -10489,14 +10482,14 @@
       <c r="F3" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="G3" s="167" t="s">
+      <c r="G3" s="132" t="s">
         <v>704</v>
       </c>
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
       <c r="J3" s="72"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="111" t="s">
         <v>63</v>
       </c>
@@ -10520,11 +10513,11 @@
         <v>66</v>
       </c>
       <c r="I4" s="112"/>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="140" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="116" t="s">
         <v>68</v>
       </c>
@@ -10548,9 +10541,9 @@
         <v>64</v>
       </c>
       <c r="I5" s="112"/>
-      <c r="J5" s="131"/>
-    </row>
-    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="J5" s="140"/>
+    </row>
+    <row r="6" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="111" t="s">
         <v>294</v>
       </c>
@@ -10567,7 +10560,7 @@
       <c r="F6" s="112" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="172" t="s">
+      <c r="G6" s="134" t="s">
         <v>157</v>
       </c>
       <c r="H6" s="112" t="s">
@@ -10576,11 +10569,11 @@
       <c r="I6" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="J6" s="141" t="s">
+      <c r="J6" s="142" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="90" t="s">
         <v>299</v>
       </c>
@@ -10606,9 +10599,9 @@
       <c r="I7" s="112" t="s">
         <v>303</v>
       </c>
-      <c r="J7" s="142"/>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J7" s="143"/>
+    </row>
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="111" t="s">
         <v>304</v>
       </c>
@@ -10636,7 +10629,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="111" t="s">
         <v>307</v>
       </c>
@@ -10664,7 +10657,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="111" t="s">
         <v>310</v>
       </c>
@@ -10692,7 +10685,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="111" t="s">
         <v>161</v>
       </c>
@@ -10722,29 +10715,29 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="134" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="134" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="134" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="134" t="s">
+    <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="172" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="F12" s="134" t="s">
+      <c r="F12" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="145" t="s">
         <v>319</v>
       </c>
-      <c r="H12" s="134" t="s">
+      <c r="H12" s="139" t="s">
         <v>320</v>
       </c>
       <c r="I12" s="112" t="s">
@@ -10754,15 +10747,15 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="134"/>
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="172"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="139"/>
       <c r="I13" s="112" t="s">
         <v>323</v>
       </c>
@@ -10770,15 +10763,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="162"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="134"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="172"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="112" t="s">
         <v>324</v>
       </c>
@@ -10786,15 +10779,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="162"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="134"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="172"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="139"/>
       <c r="I15" s="112" t="s">
         <v>325</v>
       </c>
@@ -10802,71 +10795,71 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="156" t="s">
+    <row r="16" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="169" t="s">
         <v>326</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="156" t="s">
         <v>327</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="161" t="s">
         <v>328</v>
       </c>
       <c r="D16" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="156" t="s">
         <v>326</v>
       </c>
-      <c r="F16" s="151" t="s">
+      <c r="F16" s="156" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="168" t="s">
+      <c r="G16" s="164" t="s">
         <v>330</v>
       </c>
-      <c r="H16" s="151" t="s">
+      <c r="H16" s="156" t="s">
         <v>331</v>
       </c>
       <c r="I16" s="112" t="s">
         <v>332</v>
       </c>
-      <c r="J16" s="141" t="s">
+      <c r="J16" s="142" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="160"/>
+    <row r="17" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="170"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="162"/>
       <c r="D17" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="152"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="157"/>
       <c r="I17" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="J17" s="155"/>
-    </row>
-    <row r="18" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="161"/>
+      <c r="J17" s="168"/>
+    </row>
+    <row r="18" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="171"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="153"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="158"/>
       <c r="I18" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="J18" s="142"/>
-    </row>
-    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J18" s="143"/>
+    </row>
+    <row r="19" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="111" t="s">
         <v>338</v>
       </c>
@@ -10896,7 +10889,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="111" t="s">
         <v>345</v>
       </c>
@@ -10926,7 +10919,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="111" t="s">
         <v>352</v>
       </c>
@@ -10956,7 +10949,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="111" t="s">
         <v>355</v>
       </c>
@@ -10984,7 +10977,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="111" t="s">
         <v>360</v>
       </c>
@@ -11012,7 +11005,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="91" t="s">
         <v>364</v>
       </c>
@@ -11040,7 +11033,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="91" t="s">
         <v>368</v>
       </c>
@@ -11064,11 +11057,11 @@
       <c r="I25" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="141" t="s">
+      <c r="J25" s="142" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="91" t="s">
         <v>371</v>
       </c>
@@ -11092,9 +11085,9 @@
       <c r="I26" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="155"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J26" s="168"/>
+    </row>
+    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="91" t="s">
         <v>374</v>
       </c>
@@ -11118,9 +11111,9 @@
       <c r="I27" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="155"/>
-    </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J27" s="168"/>
+    </row>
+    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="91" t="s">
         <v>142</v>
       </c>
@@ -11144,9 +11137,9 @@
       <c r="I28" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="155"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J28" s="168"/>
+    </row>
+    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="91" t="s">
         <v>376</v>
       </c>
@@ -11170,9 +11163,9 @@
       <c r="I29" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="155"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="168"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="113" t="s">
         <v>379</v>
       </c>
@@ -11196,9 +11189,9 @@
       <c r="I30" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="142"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="143"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="113" t="s">
         <v>380</v>
       </c>
@@ -11226,7 +11219,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="113" t="s">
         <v>383</v>
       </c>
@@ -11254,7 +11247,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="113" t="s">
         <v>385</v>
       </c>
@@ -11282,7 +11275,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="113" t="s">
         <v>388</v>
       </c>
@@ -11310,7 +11303,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="92" t="s">
         <v>391</v>
       </c>
@@ -11327,7 +11320,7 @@
       <c r="F35" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="171"/>
+      <c r="G35" s="133"/>
       <c r="H35" s="78" t="s">
         <v>101</v>
       </c>
@@ -11338,8 +11331,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A37" s="86" t="s">
         <v>394</v>
       </c>
@@ -11356,7 +11349,7 @@
       <c r="F37" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="173" t="s">
+      <c r="G37" s="135" t="s">
         <v>704</v>
       </c>
       <c r="H37" s="83" t="s">
@@ -11369,7 +11362,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="111" t="s">
         <v>63</v>
       </c>
@@ -11393,11 +11386,11 @@
         <v>66</v>
       </c>
       <c r="I38" s="112"/>
-      <c r="J38" s="131" t="s">
+      <c r="J38" s="140" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="116" t="s">
         <v>68</v>
       </c>
@@ -11421,9 +11414,9 @@
         <v>64</v>
       </c>
       <c r="I39" s="112"/>
-      <c r="J39" s="131"/>
-    </row>
-    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J39" s="140"/>
+    </row>
+    <row r="40" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="111" t="s">
         <v>161</v>
       </c>
@@ -11453,7 +11446,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="111" t="s">
         <v>338</v>
       </c>
@@ -11483,7 +11476,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="111" t="s">
         <v>345</v>
       </c>
@@ -11513,7 +11506,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="111" t="s">
         <v>352</v>
       </c>
@@ -11541,7 +11534,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="111" t="s">
         <v>355</v>
       </c>
@@ -11567,7 +11560,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="111" t="s">
         <v>360</v>
       </c>
@@ -11593,69 +11586,69 @@
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="156" t="s">
+    <row r="46" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="169" t="s">
         <v>326</v>
       </c>
-      <c r="B46" s="151" t="s">
+      <c r="B46" s="156" t="s">
         <v>327</v>
       </c>
-      <c r="C46" s="159" t="s">
+      <c r="C46" s="161" t="s">
         <v>328</v>
       </c>
       <c r="D46" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="E46" s="151" t="s">
+      <c r="E46" s="156" t="s">
         <v>326</v>
       </c>
-      <c r="F46" s="151" t="s">
+      <c r="F46" s="156" t="s">
         <v>330</v>
       </c>
-      <c r="G46" s="168"/>
-      <c r="H46" s="151" t="s">
+      <c r="G46" s="164"/>
+      <c r="H46" s="156" t="s">
         <v>331</v>
       </c>
       <c r="I46" s="112" t="s">
         <v>332</v>
       </c>
-      <c r="J46" s="141" t="s">
+      <c r="J46" s="142" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="157"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="160"/>
+    <row r="47" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="170"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="162"/>
       <c r="D47" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="152"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="157"/>
       <c r="I47" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="J47" s="155"/>
-    </row>
-    <row r="48" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="158"/>
-      <c r="B48" s="153"/>
-      <c r="C48" s="161"/>
+      <c r="J47" s="168"/>
+    </row>
+    <row r="48" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="171"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="163"/>
       <c r="D48" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E48" s="153"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="153"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="166"/>
+      <c r="H48" s="158"/>
       <c r="I48" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="J48" s="142"/>
-    </row>
-    <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J48" s="143"/>
+    </row>
+    <row r="49" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="87" t="s">
         <v>399</v>
       </c>
@@ -11683,7 +11676,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="87" t="s">
         <v>402</v>
       </c>
@@ -11711,7 +11704,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="113" t="s">
         <v>385</v>
       </c>
@@ -11739,7 +11732,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="88" t="s">
         <v>156</v>
       </c>
@@ -11754,7 +11747,7 @@
       <c r="F52" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="171"/>
+      <c r="G52" s="133"/>
       <c r="H52" s="78" t="s">
         <v>101</v>
       </c>
@@ -11765,8 +11758,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="81" t="s">
         <v>326</v>
       </c>
@@ -11781,16 +11774,16 @@
         <v>326</v>
       </c>
       <c r="F54" s="76"/>
-      <c r="G54" s="174"/>
+      <c r="G54" s="136"/>
       <c r="H54" s="76" t="s">
         <v>112</v>
       </c>
       <c r="I54" s="83"/>
-      <c r="J54" s="154" t="s">
+      <c r="J54" s="167" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="84" t="s">
         <v>63</v>
       </c>
@@ -11814,9 +11807,9 @@
       <c r="I55" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J55" s="155"/>
-    </row>
-    <row r="56" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="J55" s="168"/>
+    </row>
+    <row r="56" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A56" s="84" t="s">
         <v>55</v>
       </c>
@@ -11840,9 +11833,9 @@
       <c r="I56" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="J56" s="142"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="143"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="84" t="s">
         <v>147</v>
       </c>
@@ -11870,7 +11863,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="84" t="s">
         <v>150</v>
       </c>
@@ -11898,7 +11891,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="84" t="s">
         <v>152</v>
       </c>
@@ -11926,7 +11919,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="84" t="s">
         <v>154</v>
       </c>
@@ -11954,7 +11947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="84" t="s">
         <v>156</v>
       </c>
@@ -11982,7 +11975,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="84" t="s">
         <v>181</v>
       </c>
@@ -12010,7 +12003,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="85" t="s">
         <v>407</v>
       </c>
@@ -12027,7 +12020,7 @@
       <c r="F63" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="G63" s="171"/>
+      <c r="G63" s="133"/>
       <c r="H63" s="78" t="s">
         <v>101</v>
       </c>
@@ -12038,8 +12031,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="75" t="s">
         <v>409</v>
       </c>
@@ -12054,14 +12047,14 @@
       <c r="F65" s="76" t="s">
         <v>412</v>
       </c>
-      <c r="G65" s="174"/>
+      <c r="G65" s="136"/>
       <c r="H65" s="76"/>
       <c r="I65" s="76"/>
-      <c r="J65" s="154" t="s">
+      <c r="J65" s="167" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="43" t="s">
         <v>63</v>
       </c>
@@ -12083,9 +12076,9 @@
         <v>64</v>
       </c>
       <c r="I66" s="112"/>
-      <c r="J66" s="155"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="168"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="43" t="s">
         <v>55</v>
       </c>
@@ -12107,9 +12100,9 @@
         <v>413</v>
       </c>
       <c r="I67" s="112"/>
-      <c r="J67" s="142"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="143"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="43" t="s">
         <v>147</v>
       </c>
@@ -12137,7 +12130,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="43" t="s">
         <v>150</v>
       </c>
@@ -12165,7 +12158,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
         <v>152</v>
       </c>
@@ -12193,7 +12186,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="43" t="s">
         <v>154</v>
       </c>
@@ -12221,7 +12214,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="43" t="s">
         <v>156</v>
       </c>
@@ -12249,7 +12242,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="43" t="s">
         <v>181</v>
       </c>
@@ -12277,7 +12270,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="43" t="s">
         <v>407</v>
       </c>
@@ -12305,7 +12298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="116" t="s">
         <v>101</v>
       </c>
@@ -12333,7 +12326,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="116" t="s">
         <v>101</v>
       </c>
@@ -12363,7 +12356,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="116" t="s">
         <v>101</v>
       </c>
@@ -12393,7 +12386,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="116" t="s">
         <v>101</v>
       </c>
@@ -12421,7 +12414,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="116" t="s">
         <v>101</v>
       </c>
@@ -12449,7 +12442,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="116" t="s">
         <v>101</v>
       </c>
@@ -12477,7 +12470,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="116" t="s">
         <v>101</v>
       </c>
@@ -12505,7 +12498,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="116" t="s">
         <v>101</v>
       </c>
@@ -12533,7 +12526,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="116" t="s">
         <v>101</v>
       </c>
@@ -12561,7 +12554,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="116" t="s">
         <v>101</v>
       </c>
@@ -12589,7 +12582,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="77" t="s">
         <v>101</v>
       </c>
@@ -12608,7 +12601,7 @@
       <c r="F85" s="78" t="s">
         <v>437</v>
       </c>
-      <c r="G85" s="171"/>
+      <c r="G85" s="133"/>
       <c r="H85" s="79" t="s">
         <v>75</v>
       </c>
@@ -12617,8 +12610,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="87" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="117" t="s">
         <v>438</v>
       </c>
@@ -12635,16 +12628,16 @@
       <c r="F87" s="117" t="s">
         <v>341</v>
       </c>
-      <c r="G87" s="175"/>
+      <c r="G87" s="137"/>
       <c r="H87" s="117" t="s">
         <v>342</v>
       </c>
       <c r="I87" s="117"/>
-      <c r="J87" s="154" t="s">
+      <c r="J87" s="167" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="22" t="s">
         <v>63</v>
       </c>
@@ -12666,9 +12659,9 @@
         <v>64</v>
       </c>
       <c r="I88" s="112"/>
-      <c r="J88" s="155"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J88" s="168"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="22" t="s">
         <v>55</v>
       </c>
@@ -12690,9 +12683,9 @@
         <v>413</v>
       </c>
       <c r="I89" s="112"/>
-      <c r="J89" s="142"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J89" s="143"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="22" t="s">
         <v>147</v>
       </c>
@@ -12720,7 +12713,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="22" t="s">
         <v>150</v>
       </c>
@@ -12748,7 +12741,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="22" t="s">
         <v>152</v>
       </c>
@@ -12776,7 +12769,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="22" t="s">
         <v>154</v>
       </c>
@@ -12804,7 +12797,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="22" t="s">
         <v>181</v>
       </c>
@@ -12832,7 +12825,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="22" t="s">
         <v>380</v>
       </c>
@@ -12860,7 +12853,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A96" s="22" t="s">
         <v>441</v>
       </c>
@@ -12890,7 +12883,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="22" t="s">
         <v>444</v>
       </c>
@@ -12918,7 +12911,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="112" t="s">
         <v>101</v>
       </c>
@@ -12948,7 +12941,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="112" t="s">
         <v>101</v>
       </c>
@@ -12978,7 +12971,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="112" t="s">
         <v>101</v>
       </c>
@@ -13006,7 +12999,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="112" t="s">
         <v>101</v>
       </c>
@@ -13036,7 +13029,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="112" t="s">
         <v>101</v>
       </c>
@@ -13068,16 +13061,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="J46:J48"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J38:J39"/>
     <mergeCell ref="J54:J56"/>
@@ -13094,11 +13082,16 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13107,7 +13100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -13115,18 +13108,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="25.140625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="21.28515625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="27" customWidth="1"/>
+    <col min="1" max="2" width="25.1796875" style="27" customWidth="1"/>
+    <col min="3" max="4" width="21.26953125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" style="27" customWidth="1"/>
     <col min="6" max="7" width="37" style="27" customWidth="1"/>
-    <col min="8" max="9" width="21.28515625" style="27" customWidth="1"/>
+    <col min="8" max="9" width="21.26953125" style="27" customWidth="1"/>
     <col min="10" max="10" width="52" style="63" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="11" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
         <v>52</v>
       </c>
@@ -13142,7 +13135,7 @@
       <c r="I1" s="68"/>
       <c r="J1" s="69"/>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="107" t="s">
         <v>54</v>
       </c>
@@ -13174,7 +13167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="93" t="s">
         <v>299</v>
       </c>
@@ -13196,7 +13189,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="110" t="s">
         <v>63</v>
       </c>
@@ -13218,11 +13211,11 @@
         <v>66</v>
       </c>
       <c r="I4" s="112"/>
-      <c r="J4" s="163" t="s">
+      <c r="J4" s="173" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="112" t="s">
         <v>68</v>
       </c>
@@ -13244,9 +13237,9 @@
         <v>64</v>
       </c>
       <c r="I5" s="112"/>
-      <c r="J5" s="163"/>
-    </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J5" s="173"/>
+    </row>
+    <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="110" t="s">
         <v>294</v>
       </c>
@@ -13274,14 +13267,14 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164" t="s">
+    <row r="7" spans="1:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="156" t="s">
         <v>462</v>
       </c>
       <c r="D7" s="112" t="s">
@@ -13300,14 +13293,14 @@
       <c r="I7" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="141" t="s">
+      <c r="J7" s="142" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
+    <row r="8" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="175"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="112" t="s">
         <v>465</v>
       </c>
@@ -13324,9 +13317,9 @@
       <c r="I8" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="142"/>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J8" s="143"/>
+    </row>
+    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="110" t="s">
         <v>304</v>
       </c>
@@ -13352,7 +13345,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="110" t="s">
         <v>307</v>
       </c>
@@ -13378,7 +13371,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="110" t="s">
         <v>310</v>
       </c>
@@ -13404,7 +13397,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="110" t="s">
         <v>161</v>
       </c>
@@ -13432,7 +13425,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" s="110" t="s">
         <v>376</v>
       </c>
@@ -13462,69 +13455,69 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="156" t="s">
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="169" t="s">
         <v>326</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="156" t="s">
         <v>327</v>
       </c>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="161" t="s">
         <v>328</v>
       </c>
       <c r="D14" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="E14" s="151" t="s">
+      <c r="E14" s="156" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="151" t="s">
+      <c r="F14" s="156" t="s">
         <v>330</v>
       </c>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151" t="s">
+      <c r="G14" s="156"/>
+      <c r="H14" s="156" t="s">
         <v>331</v>
       </c>
       <c r="I14" s="112" t="s">
         <v>332</v>
       </c>
-      <c r="J14" s="141" t="s">
+      <c r="J14" s="142" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="157"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="160"/>
+    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="170"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="162"/>
       <c r="D15" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
       <c r="I15" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="J15" s="155"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="158"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="161"/>
+      <c r="J15" s="168"/>
+    </row>
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="171"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="163"/>
       <c r="D16" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
       <c r="I16" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="J16" s="142"/>
-    </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J16" s="143"/>
+    </row>
+    <row r="17" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>477</v>
       </c>
@@ -13554,7 +13547,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>352</v>
       </c>
@@ -13582,7 +13575,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>483</v>
       </c>
@@ -13612,7 +13605,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>487</v>
       </c>
@@ -13638,7 +13631,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>490</v>
       </c>
@@ -13666,7 +13659,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="99" t="s">
         <v>494</v>
       </c>
@@ -13694,7 +13687,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="95" t="s">
         <v>499</v>
       </c>
@@ -13720,11 +13713,11 @@
       <c r="I23" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="163" t="s">
+      <c r="J23" s="173" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="91" t="s">
         <v>374</v>
       </c>
@@ -13750,9 +13743,9 @@
       <c r="I24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="163"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="173"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="91" t="s">
         <v>142</v>
       </c>
@@ -13778,9 +13771,9 @@
       <c r="I25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="163"/>
-    </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J25" s="173"/>
+    </row>
+    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>501</v>
       </c>
@@ -13810,7 +13803,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>505</v>
       </c>
@@ -13838,7 +13831,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>134</v>
       </c>
@@ -13866,7 +13859,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>509</v>
       </c>
@@ -13896,7 +13889,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>512</v>
       </c>
@@ -13926,7 +13919,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>345</v>
       </c>
@@ -13956,7 +13949,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>517</v>
       </c>
@@ -13986,7 +13979,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>520</v>
       </c>
@@ -14016,7 +14009,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="94" t="s">
         <v>524</v>
       </c>
@@ -14046,8 +14039,8 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:10" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:10" s="13" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
         <v>158</v>
       </c>
@@ -14067,7 +14060,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>63</v>
       </c>
@@ -14089,11 +14082,11 @@
         <v>66</v>
       </c>
       <c r="I37" s="115"/>
-      <c r="J37" s="141" t="s">
+      <c r="J37" s="142" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
         <v>68</v>
       </c>
@@ -14115,9 +14108,9 @@
         <v>64</v>
       </c>
       <c r="I38" s="115"/>
-      <c r="J38" s="142"/>
-    </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="J38" s="143"/>
+    </row>
+    <row r="39" spans="1:10" s="13" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>299</v>
       </c>
@@ -14143,7 +14136,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
         <v>167</v>
       </c>
@@ -14167,7 +14160,7 @@
       <c r="I40" s="66"/>
       <c r="J40" s="35"/>
     </row>
-    <row r="41" spans="1:10" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="13" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>93</v>
       </c>
@@ -14193,7 +14186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="13" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>101</v>
       </c>
@@ -14221,7 +14214,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="33" t="s">
         <v>178</v>
       </c>
@@ -14249,7 +14242,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="33" t="s">
         <v>147</v>
       </c>
@@ -14277,7 +14270,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="33" t="s">
         <v>150</v>
       </c>
@@ -14305,7 +14298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="33" t="s">
         <v>152</v>
       </c>
@@ -14333,7 +14326,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="33" t="s">
         <v>154</v>
       </c>
@@ -14361,7 +14354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="33" t="s">
         <v>181</v>
       </c>
@@ -14389,7 +14382,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="33" t="s">
         <v>184</v>
       </c>
@@ -14417,7 +14410,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="33" t="s">
         <v>186</v>
       </c>
@@ -14445,7 +14438,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="36" t="s">
         <v>188</v>
       </c>
@@ -14473,7 +14466,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -14485,7 +14478,7 @@
       <c r="I52" s="28"/>
       <c r="J52" s="63"/>
     </row>
-    <row r="53" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="29" t="s">
         <v>171</v>
       </c>
@@ -14505,7 +14498,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="62"/>
     </row>
-    <row r="54" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="43" t="s">
         <v>63</v>
       </c>
@@ -14531,7 +14524,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="43" t="s">
         <v>55</v>
       </c>
@@ -14557,7 +14550,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
         <v>101</v>
       </c>
@@ -14587,7 +14580,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="43" t="s">
         <v>156</v>
       </c>
@@ -14615,7 +14608,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="43" t="s">
         <v>147</v>
       </c>
@@ -14643,7 +14636,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="43" t="s">
         <v>150</v>
       </c>
@@ -14671,7 +14664,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="43" t="s">
         <v>152</v>
       </c>
@@ -14699,7 +14692,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="43" t="s">
         <v>154</v>
       </c>
@@ -14727,7 +14720,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="43" t="s">
         <v>197</v>
       </c>
@@ -14755,7 +14748,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="43" t="s">
         <v>199</v>
       </c>
@@ -14783,7 +14776,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="43" t="s">
         <v>201</v>
       </c>
@@ -14811,7 +14804,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="43" t="s">
         <v>203</v>
       </c>
@@ -14839,7 +14832,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="44" t="s">
         <v>181</v>
       </c>
@@ -14867,7 +14860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
@@ -14879,7 +14872,7 @@
       <c r="I67" s="28"/>
       <c r="J67" s="63"/>
     </row>
-    <row r="68" spans="1:10" s="13" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="13" customFormat="1" ht="232" x14ac:dyDescent="0.35">
       <c r="A68" s="29" t="s">
         <v>205</v>
       </c>
@@ -14905,7 +14898,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="43" t="s">
         <v>63</v>
       </c>
@@ -14933,7 +14926,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
         <v>147</v>
       </c>
@@ -14961,7 +14954,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="43" t="s">
         <v>55</v>
       </c>
@@ -14989,7 +14982,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="43" t="s">
         <v>156</v>
       </c>
@@ -15017,7 +15010,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="43" t="s">
         <v>210</v>
       </c>
@@ -15045,7 +15038,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="43" t="s">
         <v>150</v>
       </c>
@@ -15073,7 +15066,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="43" t="s">
         <v>152</v>
       </c>
@@ -15101,7 +15094,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="43" t="s">
         <v>154</v>
       </c>
@@ -15129,7 +15122,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="44" t="s">
         <v>181</v>
       </c>
@@ -15157,7 +15150,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
@@ -15169,7 +15162,7 @@
       <c r="I78" s="28"/>
       <c r="J78" s="63"/>
     </row>
-    <row r="79" spans="1:10" s="13" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="13" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="A79" s="29" t="s">
         <v>212</v>
       </c>
@@ -15195,7 +15188,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="43" t="s">
         <v>63</v>
       </c>
@@ -15223,7 +15216,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="43" t="s">
         <v>147</v>
       </c>
@@ -15251,7 +15244,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="43" t="s">
         <v>150</v>
       </c>
@@ -15279,7 +15272,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="43" t="s">
         <v>152</v>
       </c>
@@ -15307,7 +15300,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="43" t="s">
         <v>154</v>
       </c>
@@ -15335,7 +15328,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="43" t="s">
         <v>215</v>
       </c>
@@ -15363,7 +15356,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="43" t="s">
         <v>216</v>
       </c>
@@ -15391,7 +15384,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="44" t="s">
         <v>181</v>
       </c>
@@ -15419,8 +15412,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="89" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="81" t="s">
         <v>326</v>
       </c>
@@ -15440,11 +15433,11 @@
         <v>112</v>
       </c>
       <c r="I89" s="83"/>
-      <c r="J89" s="154" t="s">
+      <c r="J89" s="167" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="84" t="s">
         <v>63</v>
       </c>
@@ -15468,9 +15461,9 @@
       <c r="I90" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J90" s="155"/>
-    </row>
-    <row r="91" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="J90" s="168"/>
+    </row>
+    <row r="91" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A91" s="84" t="s">
         <v>55</v>
       </c>
@@ -15494,9 +15487,9 @@
       <c r="I91" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="J91" s="142"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J91" s="143"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="84" t="s">
         <v>147</v>
       </c>
@@ -15524,7 +15517,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="84" t="s">
         <v>150</v>
       </c>
@@ -15552,7 +15545,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="84" t="s">
         <v>152</v>
       </c>
@@ -15580,7 +15573,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="84" t="s">
         <v>154</v>
       </c>
@@ -15608,7 +15601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="84" t="s">
         <v>156</v>
       </c>
@@ -15636,7 +15629,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="84" t="s">
         <v>181</v>
       </c>
@@ -15664,7 +15657,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="85" t="s">
         <v>407</v>
       </c>
@@ -15692,10 +15685,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D99" s="65"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="75" t="s">
         <v>409</v>
       </c>
@@ -15713,11 +15706,11 @@
       <c r="G100" s="76"/>
       <c r="H100" s="76"/>
       <c r="I100" s="76"/>
-      <c r="J100" s="154" t="s">
+      <c r="J100" s="167" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="43" t="s">
         <v>63</v>
       </c>
@@ -15739,9 +15732,9 @@
         <v>64</v>
       </c>
       <c r="I101" s="112"/>
-      <c r="J101" s="155"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J101" s="168"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="43" t="s">
         <v>55</v>
       </c>
@@ -15763,9 +15756,9 @@
         <v>413</v>
       </c>
       <c r="I102" s="112"/>
-      <c r="J102" s="142"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J102" s="143"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="43" t="s">
         <v>147</v>
       </c>
@@ -15793,7 +15786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="43" t="s">
         <v>150</v>
       </c>
@@ -15821,7 +15814,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="43" t="s">
         <v>152</v>
       </c>
@@ -15849,7 +15842,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="43" t="s">
         <v>154</v>
       </c>
@@ -15877,7 +15870,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="43" t="s">
         <v>156</v>
       </c>
@@ -15905,7 +15898,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="43" t="s">
         <v>181</v>
       </c>
@@ -15933,7 +15926,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="43" t="s">
         <v>407</v>
       </c>
@@ -15961,7 +15954,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="116" t="s">
         <v>101</v>
       </c>
@@ -15989,7 +15982,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="116" t="s">
         <v>101</v>
       </c>
@@ -16019,7 +16012,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="116" t="s">
         <v>101</v>
       </c>
@@ -16049,7 +16042,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="116" t="s">
         <v>101</v>
       </c>
@@ -16077,7 +16070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="116" t="s">
         <v>101</v>
       </c>
@@ -16105,7 +16098,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="116" t="s">
         <v>101</v>
       </c>
@@ -16133,7 +16126,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="116" t="s">
         <v>101</v>
       </c>
@@ -16161,7 +16154,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="116" t="s">
         <v>101</v>
       </c>
@@ -16189,7 +16182,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="116" t="s">
         <v>101</v>
       </c>
@@ -16217,7 +16210,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="116" t="s">
         <v>101</v>
       </c>
@@ -16245,7 +16238,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="77" t="s">
         <v>101</v>
       </c>
@@ -16273,7 +16266,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="73"/>
       <c r="B121" s="73"/>
       <c r="C121" s="73"/>
@@ -16285,7 +16278,7 @@
       <c r="I121" s="73"/>
       <c r="J121" s="69"/>
     </row>
-    <row r="122" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="117" t="s">
         <v>438</v>
       </c>
@@ -16307,11 +16300,11 @@
         <v>342</v>
       </c>
       <c r="I122" s="117"/>
-      <c r="J122" s="154" t="s">
+      <c r="J122" s="167" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
         <v>63</v>
       </c>
@@ -16333,9 +16326,9 @@
         <v>64</v>
       </c>
       <c r="I123" s="112"/>
-      <c r="J123" s="155"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J123" s="168"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
         <v>55</v>
       </c>
@@ -16357,9 +16350,9 @@
         <v>413</v>
       </c>
       <c r="I124" s="112"/>
-      <c r="J124" s="142"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J124" s="143"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
         <v>147</v>
       </c>
@@ -16387,7 +16380,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="23" t="s">
         <v>150</v>
       </c>
@@ -16415,7 +16408,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
         <v>152</v>
       </c>
@@ -16443,7 +16436,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
         <v>154</v>
       </c>
@@ -16471,7 +16464,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
         <v>181</v>
       </c>
@@ -16499,7 +16492,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
         <v>380</v>
       </c>
@@ -16527,7 +16520,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
         <v>441</v>
       </c>
@@ -16557,7 +16550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
         <v>444</v>
       </c>
@@ -16585,7 +16578,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="112" t="s">
         <v>101</v>
       </c>
@@ -16615,7 +16608,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="112" t="s">
         <v>101</v>
       </c>
@@ -16645,7 +16638,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="112" t="s">
         <v>101</v>
       </c>
@@ -16673,7 +16666,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="112" t="s">
         <v>101</v>
       </c>
@@ -16703,7 +16696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="112" t="s">
         <v>101</v>
       </c>
@@ -16733,10 +16726,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D138" s="65"/>
     </row>
-    <row r="139" spans="1:10" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="63" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="19" t="s">
         <v>462</v>
       </c>
@@ -16764,7 +16757,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="23" t="s">
         <v>63</v>
       </c>
@@ -16792,7 +16785,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="23" t="s">
         <v>147</v>
       </c>
@@ -16820,7 +16813,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
         <v>150</v>
       </c>
@@ -16848,7 +16841,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="23" t="s">
         <v>152</v>
       </c>
@@ -16876,7 +16869,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="23" t="s">
         <v>154</v>
       </c>
@@ -16904,7 +16897,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="23" t="s">
         <v>55</v>
       </c>
@@ -16932,7 +16925,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="23" t="s">
         <v>156</v>
       </c>
@@ -16960,7 +16953,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="23" t="s">
         <v>181</v>
       </c>
@@ -16988,10 +16981,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D148" s="65"/>
     </row>
-    <row r="149" spans="1:10" s="63" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="63" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A149" s="19" t="s">
         <v>472</v>
       </c>
@@ -17017,7 +17010,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="23" t="s">
         <v>63</v>
       </c>
@@ -17045,7 +17038,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="23" t="s">
         <v>147</v>
       </c>
@@ -17073,7 +17066,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="23" t="s">
         <v>150</v>
       </c>
@@ -17101,7 +17094,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="23" t="s">
         <v>152</v>
       </c>
@@ -17129,7 +17122,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="23" t="s">
         <v>154</v>
       </c>
@@ -17157,7 +17150,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="23" t="s">
         <v>55</v>
       </c>
@@ -17185,7 +17178,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="23" t="s">
         <v>156</v>
       </c>
@@ -17213,7 +17206,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="23" t="s">
         <v>181</v>
       </c>
@@ -17241,7 +17234,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="63" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="19" t="s">
         <v>494</v>
       </c>
@@ -17267,7 +17260,7 @@
       </c>
       <c r="J159" s="19"/>
     </row>
-    <row r="160" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="23" t="s">
         <v>63</v>
       </c>
@@ -17293,7 +17286,7 @@
       </c>
       <c r="J160" s="19"/>
     </row>
-    <row r="161" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A161" s="23" t="s">
         <v>235</v>
       </c>
@@ -17319,7 +17312,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="23" t="s">
         <v>93</v>
       </c>
@@ -17347,7 +17340,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="23" t="s">
         <v>299</v>
       </c>
@@ -17375,7 +17368,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="23" t="s">
         <v>147</v>
       </c>
@@ -17403,7 +17396,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="23" t="s">
         <v>150</v>
       </c>
@@ -17431,7 +17424,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="23" t="s">
         <v>152</v>
       </c>
@@ -17459,7 +17452,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="23" t="s">
         <v>154</v>
       </c>
@@ -17487,7 +17480,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="23" t="s">
         <v>181</v>
       </c>
@@ -17515,7 +17508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="23" t="s">
         <v>156</v>
       </c>
@@ -17543,7 +17536,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="63" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="117" t="s">
         <v>101</v>
       </c>
@@ -17569,7 +17562,7 @@
       <c r="I171" s="117"/>
       <c r="J171" s="117"/>
     </row>
-    <row r="172" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="117" t="s">
         <v>101</v>
       </c>
@@ -17597,7 +17590,7 @@
       </c>
       <c r="J172" s="19"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="117" t="s">
         <v>101</v>
       </c>
@@ -17623,7 +17616,7 @@
       <c r="I173" s="14"/>
       <c r="J173" s="19"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="117" t="s">
         <v>101</v>
       </c>
@@ -17649,7 +17642,7 @@
       <c r="I174" s="14"/>
       <c r="J174" s="19"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="117" t="s">
         <v>101</v>
       </c>
@@ -17677,6 +17670,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="J100:J102"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
@@ -17690,11 +17688,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="J100:J102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17703,7 +17696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17711,18 +17704,18 @@
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="25.140625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="27" customWidth="1"/>
-    <col min="6" max="7" width="25.140625" style="27" customWidth="1"/>
-    <col min="8" max="9" width="21.42578125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="67.140625" style="27" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="2" width="25.1796875" style="27" customWidth="1"/>
+    <col min="3" max="4" width="21.453125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" style="27" customWidth="1"/>
+    <col min="6" max="7" width="25.1796875" style="27" customWidth="1"/>
+    <col min="8" max="9" width="21.453125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="67.1796875" style="27" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
         <v>52</v>
       </c>
@@ -17738,7 +17731,7 @@
       <c r="I1" s="68"/>
       <c r="J1" s="69"/>
     </row>
-    <row r="2" spans="1:10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="107" t="s">
         <v>54</v>
       </c>
@@ -17770,7 +17763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A3" s="70" t="s">
         <v>545</v>
       </c>
@@ -17788,7 +17781,7 @@
       <c r="I3" s="71"/>
       <c r="J3" s="72"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="110" t="s">
         <v>63</v>
       </c>
@@ -17810,11 +17803,11 @@
         <v>66</v>
       </c>
       <c r="I4" s="112"/>
-      <c r="J4" s="163" t="s">
+      <c r="J4" s="173" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="112" t="s">
         <v>68</v>
       </c>
@@ -17836,9 +17829,9 @@
         <v>64</v>
       </c>
       <c r="I5" s="112"/>
-      <c r="J5" s="163"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="173"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>55</v>
       </c>
@@ -17862,7 +17855,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>549</v>
       </c>
@@ -17886,7 +17879,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>552</v>
       </c>
@@ -17914,7 +17907,7 @@
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>558</v>
       </c>
@@ -17940,7 +17933,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>563</v>
       </c>
@@ -17970,7 +17963,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>379</v>
       </c>
@@ -17998,7 +17991,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>566</v>
       </c>
@@ -18026,7 +18019,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>147</v>
       </c>
@@ -18054,7 +18047,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>150</v>
       </c>
@@ -18082,7 +18075,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>152</v>
       </c>
@@ -18110,7 +18103,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>154</v>
       </c>
@@ -18138,7 +18131,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>181</v>
       </c>
@@ -18166,7 +18159,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>567</v>
       </c>
@@ -18194,7 +18187,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>569</v>
       </c>
@@ -18224,7 +18217,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>574</v>
       </c>
@@ -18254,7 +18247,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>579</v>
       </c>
@@ -18284,7 +18277,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>558</v>
       </c>
@@ -18310,7 +18303,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="110" t="s">
         <v>63</v>
       </c>
@@ -18332,11 +18325,11 @@
         <v>66</v>
       </c>
       <c r="I24" s="112"/>
-      <c r="J24" s="163" t="s">
+      <c r="J24" s="173" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="112" t="s">
         <v>68</v>
       </c>
@@ -18358,9 +18351,9 @@
         <v>64</v>
       </c>
       <c r="I25" s="112"/>
-      <c r="J25" s="163"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="173"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>549</v>
       </c>
@@ -18384,7 +18377,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="117"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
@@ -18408,7 +18401,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="117"/>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>587</v>
       </c>
@@ -18432,7 +18425,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="117"/>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>590</v>
       </c>
@@ -18460,7 +18453,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>147</v>
       </c>
@@ -18488,7 +18481,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>150</v>
       </c>
@@ -18516,7 +18509,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>152</v>
       </c>
@@ -18544,7 +18537,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>154</v>
       </c>
@@ -18572,7 +18565,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>181</v>
       </c>
@@ -18600,7 +18593,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>567</v>
       </c>
@@ -18628,7 +18621,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>407</v>
       </c>
@@ -18656,7 +18649,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>554</v>
       </c>
@@ -18678,7 +18671,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
         <v>63</v>
       </c>
@@ -18696,7 +18689,7 @@
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
         <v>55</v>
       </c>
@@ -18716,7 +18709,7 @@
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="22" t="s">
         <v>595</v>
       </c>
@@ -18738,7 +18731,7 @@
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="22" t="s">
         <v>147</v>
       </c>
@@ -18756,7 +18749,7 @@
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="s">
         <v>150</v>
       </c>
@@ -18774,7 +18767,7 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
         <v>152</v>
       </c>
@@ -18792,7 +18785,7 @@
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>154</v>
       </c>
@@ -18810,7 +18803,7 @@
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>156</v>
       </c>
@@ -18828,7 +18821,7 @@
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="22" t="s">
         <v>181</v>
       </c>
@@ -18846,7 +18839,7 @@
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
     </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="117" t="s">
         <v>598</v>
       </c>
@@ -18862,7 +18855,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>600</v>
       </c>
@@ -18880,7 +18873,7 @@
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>602</v>
       </c>
@@ -18898,7 +18891,7 @@
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>604</v>
       </c>
@@ -18916,7 +18909,7 @@
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>605</v>
       </c>
@@ -18934,7 +18927,7 @@
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>606</v>
       </c>
@@ -18963,23 +18956,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="162" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>607</v>
       </c>
@@ -18993,7 +18986,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>610</v>
       </c>
@@ -19004,7 +18997,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>613</v>
       </c>
@@ -19015,7 +19008,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>615</v>
       </c>
@@ -19026,7 +19019,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>210</v>
       </c>
@@ -19037,7 +19030,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>619</v>
       </c>
@@ -19048,7 +19041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>620</v>
       </c>
@@ -19059,7 +19052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>598</v>
       </c>
@@ -19067,7 +19060,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>600</v>
       </c>
@@ -19078,7 +19071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>602</v>
       </c>
@@ -19089,7 +19082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>604</v>
       </c>
@@ -19100,7 +19093,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>605</v>
       </c>
@@ -19111,7 +19104,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>606</v>
       </c>
@@ -19128,23 +19121,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="162" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>607</v>
       </c>
@@ -19158,7 +19151,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>621</v>
       </c>
@@ -19169,7 +19162,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>299</v>
       </c>
@@ -19180,7 +19173,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>623</v>
       </c>
@@ -19191,7 +19184,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>626</v>
       </c>
@@ -19202,7 +19195,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>628</v>
       </c>
@@ -19213,7 +19206,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>161</v>
       </c>
@@ -19224,7 +19217,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>632</v>
       </c>
@@ -19235,7 +19228,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>634</v>
       </c>
@@ -19246,7 +19239,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>142</v>
       </c>
@@ -19257,7 +19250,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>636</v>
       </c>
@@ -19268,7 +19261,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>638</v>
       </c>
@@ -19279,7 +19272,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>619</v>
       </c>
@@ -19290,7 +19283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>640</v>
       </c>
@@ -19301,7 +19294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>641</v>
       </c>
@@ -19312,7 +19305,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>643</v>
       </c>
@@ -19323,7 +19316,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>645</v>
       </c>
@@ -19334,7 +19327,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>647</v>
       </c>
@@ -19345,7 +19338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>648</v>
       </c>
@@ -19356,7 +19349,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>650</v>
       </c>
@@ -19367,7 +19360,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>651</v>
       </c>
@@ -19378,7 +19371,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>652</v>
@@ -19390,7 +19383,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>654</v>
@@ -19402,7 +19395,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
         <v>655</v>
@@ -19414,7 +19407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="s">
         <v>656</v>
       </c>
@@ -19422,7 +19415,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>161</v>
       </c>
@@ -19434,7 +19427,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>657</v>
       </c>
@@ -19446,7 +19439,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>626</v>
       </c>
@@ -19457,7 +19450,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
         <v>658</v>
       </c>
@@ -19468,7 +19461,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
         <v>660</v>
       </c>
@@ -19480,7 +19473,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
         <v>662</v>
       </c>
@@ -19492,7 +19485,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>664</v>
       </c>
@@ -19503,7 +19496,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>665</v>
       </c>
@@ -19514,7 +19507,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>666</v>
       </c>
@@ -19526,7 +19519,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="11" t="s">
         <v>669</v>
       </c>
@@ -19537,7 +19530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="11" t="s">
         <v>670</v>
       </c>
@@ -19548,28 +19541,28 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E46" s="5"/>
     </row>
   </sheetData>
@@ -19579,23 +19572,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="162" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>607</v>
       </c>
@@ -19609,7 +19602,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>621</v>
       </c>
@@ -19620,7 +19613,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>93</v>
       </c>
@@ -19634,7 +19627,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>626</v>
       </c>
@@ -19645,7 +19638,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>632</v>
       </c>
@@ -19656,7 +19649,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>634</v>
       </c>
@@ -19667,7 +19660,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>142</v>
       </c>
@@ -19678,7 +19671,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>647</v>
       </c>
@@ -19689,7 +19682,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>161</v>
       </c>
@@ -19700,7 +19693,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>641</v>
       </c>
@@ -19711,7 +19704,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>643</v>
       </c>
@@ -19722,7 +19715,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>645</v>
       </c>
@@ -19733,7 +19726,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>671</v>
       </c>
@@ -19744,7 +19737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>672</v>
       </c>
@@ -19755,7 +19748,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>619</v>
       </c>
@@ -19766,7 +19759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>638</v>
       </c>
@@ -19777,7 +19770,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>675</v>
       </c>
@@ -19788,7 +19781,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>623</v>
       </c>
@@ -19799,7 +19792,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>676</v>
       </c>
@@ -19813,7 +19806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>676</v>
       </c>
@@ -19827,7 +19820,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>520</v>
       </c>
@@ -19838,7 +19831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>679</v>
       </c>
@@ -19849,7 +19842,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>682</v>
       </c>
@@ -19860,7 +19853,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>658</v>
       </c>
@@ -19871,7 +19864,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>685</v>
       </c>
@@ -19882,7 +19875,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>676</v>
       </c>
@@ -19896,7 +19889,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>326</v>
       </c>
@@ -19907,28 +19900,28 @@
         <v>668</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" s="5"/>
     </row>
   </sheetData>
@@ -19948,12 +19941,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100A149A5EC5B415C43AF6C39044B727010" ma:contentTypeVersion="12" ma:contentTypeDescription="Створення нового документа." ma:contentTypeScope="" ma:versionID="adb818f6ab534f3e18047535574b097b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21e6baae-1cde-4856-8474-ad3fa22f8c64" xmlns:ns4="c81685c9-f42b-480a-a239-6692c6b498a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fea8c311f6104fdce7ed15e479397a23" ns3:_="" ns4:_="">
     <xsd:import namespace="21e6baae-1cde-4856-8474-ad3fa22f8c64"/>
@@ -20170,6 +20157,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E390EF-0789-4575-A79E-993C1583B70B}">
   <ds:schemaRefs>
@@ -20179,15 +20172,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{036AF336-40C6-4505-8C13-1D576AA1C6AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC7CC14F-5A0D-4DF5-B91E-4515F63D11A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20204,4 +20188,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{036AF336-40C6-4505-8C13-1D576AA1C6AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/App/Documents/Creatio-1C 2 _29.07.2020.xlsx
+++ b/App/Documents/Creatio-1C 2 _29.07.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\KustoAgro\VS\DatEx.1C\App\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CAC537-9A21-4974-8ADD-DDCEB4B8D4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9F1FD-7A15-4C0F-8221-9037750344BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="3610" windowWidth="24680" windowHeight="14430" tabRatio="838" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="838" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="7" r:id="rId1"/>
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="720">
   <si>
     <t>Алгоритм интеграции</t>
   </si>
@@ -2765,12 +2765,33 @@
   <si>
     <t>Должность_Key</t>
   </si>
+  <si>
+    <t>Из след. свойств объекта Creatio: SurName, GivenName, MiddleName</t>
+  </si>
+  <si>
+    <t>Не изменяется</t>
+  </si>
+  <si>
+    <t>Catalog_ФизическиеЛица</t>
+  </si>
+  <si>
+    <t>Не изменяется для существ объектов, задается типом Сотрудник для новых</t>
+  </si>
+  <si>
+    <t>InformationRegister_ФИОФизЛиц[ФизЛицо=Catalog_ФизическиеЛица.Ref_Key].Фамилия</t>
+  </si>
+  <si>
+    <t>InformationRegister_ФИОФизЛиц[ФизЛицо=Catalog_ФизическиеЛица.Ref_Key].Имя</t>
+  </si>
+  <si>
+    <t>InformationRegister_ФИОФизЛиц[ФизЛицо=Catalog_ФизическиеЛица.Ref_Key].Отчество</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2901,6 +2922,14 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3248,7 +3277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3627,31 +3656,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3660,7 +3671,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3690,21 +3731,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3729,6 +3755,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3739,6 +3774,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4740,28 +4781,28 @@
       <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="143" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="147" t="s">
+      <c r="F6" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="143" t="s">
         <v>75</v>
       </c>
       <c r="I6" s="115" t="b">
@@ -4772,16 +4813,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="148"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="143"/>
       <c r="D7" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="139"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="143"/>
       <c r="I7" s="115" t="b">
         <v>1</v>
       </c>
@@ -4892,28 +4933,28 @@
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="G12" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="139" t="s">
+      <c r="H12" s="143" t="s">
         <v>75</v>
       </c>
       <c r="I12" s="115" t="b">
@@ -4924,59 +4965,59 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="141"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="139"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="143"/>
       <c r="I13" s="115" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="140"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="141"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139" t="s">
+      <c r="A14" s="146"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="146" t="s">
+      <c r="E14" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="146" t="s">
+      <c r="F14" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="145" t="s">
+      <c r="G14" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="139"/>
+      <c r="H14" s="143"/>
       <c r="I14" s="115" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="141"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="139"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="115" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="141"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="139"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="14" t="s">
         <v>100</v>
       </c>
@@ -4998,9 +5039,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="141"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="139"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="14" t="s">
         <v>103</v>
       </c>
@@ -5022,9 +5063,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="141"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="139"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="14" t="s">
         <v>104</v>
       </c>
@@ -5046,9 +5087,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="141"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="139"/>
+      <c r="A19" s="146"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
@@ -5070,28 +5111,28 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="13" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="141" t="s">
+      <c r="A20" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="143" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="139" t="s">
+      <c r="E20" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="145" t="s">
+      <c r="G20" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="139" t="s">
+      <c r="H20" s="143" t="s">
         <v>112</v>
       </c>
       <c r="I20" s="115" t="s">
@@ -5102,215 +5143,215 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="141"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="139"/>
+      <c r="A21" s="146"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="138" t="s">
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="149" t="s">
         <v>116</v>
       </c>
       <c r="J21" s="140"/>
     </row>
     <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="141"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="139"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="138"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="149"/>
       <c r="J22" s="140"/>
     </row>
     <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="141"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="139"/>
+      <c r="A23" s="146"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="138"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="149"/>
       <c r="J23" s="140"/>
     </row>
     <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="141"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="139"/>
+      <c r="A24" s="146"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="138"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="149"/>
       <c r="J24" s="140"/>
     </row>
     <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="141"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="139"/>
+      <c r="A25" s="146"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="138"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="149"/>
       <c r="J25" s="140"/>
     </row>
     <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="141"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="139"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="138"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="140"/>
     </row>
     <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="141"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="139"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="143"/>
       <c r="D27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="138"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="140"/>
     </row>
     <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="141"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="139"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="143"/>
       <c r="D28" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="138"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="140"/>
     </row>
     <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="141"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="139"/>
+      <c r="A29" s="146"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="143"/>
       <c r="D29" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="138"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="149"/>
       <c r="J29" s="140"/>
     </row>
     <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="141"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="139"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="143"/>
       <c r="D30" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="138"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="149"/>
       <c r="J30" s="140"/>
     </row>
     <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="141"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="139"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="143"/>
       <c r="D31" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="138"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="149"/>
       <c r="J31" s="140"/>
     </row>
     <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="141"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="139"/>
+      <c r="A32" s="146"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="143"/>
       <c r="D32" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="138"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="149"/>
       <c r="J32" s="140"/>
     </row>
     <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="141"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="139"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="143"/>
       <c r="D33" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="138"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="149"/>
       <c r="J33" s="140"/>
     </row>
     <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="141"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="139"/>
+      <c r="A34" s="146"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="143"/>
       <c r="D34" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="138"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="149"/>
       <c r="J34" s="140"/>
     </row>
     <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="141"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="139"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="143"/>
       <c r="D35" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="138"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="149"/>
       <c r="J35" s="140"/>
     </row>
     <row r="36" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -5737,7 +5778,7 @@
         <v>66</v>
       </c>
       <c r="I53" s="115"/>
-      <c r="J53" s="142" t="s">
+      <c r="J53" s="150" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5763,7 +5804,7 @@
         <v>64</v>
       </c>
       <c r="I54" s="115"/>
-      <c r="J54" s="143"/>
+      <c r="J54" s="151"/>
     </row>
     <row r="55" spans="1:10" s="13" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
@@ -7056,15 +7097,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I21:I35"/>
+    <mergeCell ref="H20:H35"/>
+    <mergeCell ref="J20:J35"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="E20:E35"/>
+    <mergeCell ref="F20:F35"/>
+    <mergeCell ref="G20:G35"/>
     <mergeCell ref="J12:J15"/>
     <mergeCell ref="C12:C19"/>
     <mergeCell ref="B12:B19"/>
@@ -7078,16 +7120,15 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I21:I35"/>
-    <mergeCell ref="H20:H35"/>
-    <mergeCell ref="J20:J35"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="E20:E35"/>
-    <mergeCell ref="F20:F35"/>
-    <mergeCell ref="G20:G35"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7354,13 +7395,13 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" s="13" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="150" t="s">
+      <c r="A11" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="160" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -7384,9 +7425,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="151"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="157"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="112" t="s">
         <v>96</v>
       </c>
@@ -7408,9 +7449,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="151"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="157"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="161"/>
       <c r="D13" s="112" t="s">
         <v>99</v>
       </c>
@@ -7432,9 +7473,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="151"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="157"/>
+      <c r="A14" s="155"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="161"/>
       <c r="D14" s="14" t="s">
         <v>100</v>
       </c>
@@ -7456,9 +7497,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="151"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="157"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="161"/>
       <c r="D15" s="14" t="s">
         <v>103</v>
       </c>
@@ -7480,9 +7521,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="151"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="157"/>
+      <c r="A16" s="155"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="14" t="s">
         <v>104</v>
       </c>
@@ -7504,9 +7545,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="152"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="158"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="162"/>
       <c r="D17" s="14" t="s">
         <v>105</v>
       </c>
@@ -7528,26 +7569,26 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="143" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="147" t="s">
+      <c r="E18" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="147" t="s">
+      <c r="F18" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="147"/>
-      <c r="H18" s="139" t="s">
+      <c r="G18" s="141"/>
+      <c r="H18" s="143" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="115" t="b">
@@ -7558,42 +7599,42 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="13" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="159"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="139"/>
+      <c r="A19" s="152"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="139"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="143"/>
       <c r="I19" s="115" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="140"/>
     </row>
     <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="143" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="139" t="s">
+      <c r="E20" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139" t="s">
+      <c r="G20" s="143"/>
+      <c r="H20" s="143" t="s">
         <v>112</v>
       </c>
       <c r="I20" s="115" t="s">
@@ -7604,215 +7645,215 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="159"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="139"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="138" t="s">
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="149" t="s">
         <v>116</v>
       </c>
       <c r="J21" s="140"/>
     </row>
     <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="159"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="139"/>
+      <c r="A22" s="152"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="138"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="149"/>
       <c r="J22" s="140"/>
     </row>
     <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="159"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="139"/>
+      <c r="A23" s="152"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="138"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="149"/>
       <c r="J23" s="140"/>
     </row>
     <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="159"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="139"/>
+      <c r="A24" s="152"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="138"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="149"/>
       <c r="J24" s="140"/>
     </row>
     <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="159"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="139"/>
+      <c r="A25" s="152"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="138"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="149"/>
       <c r="J25" s="140"/>
     </row>
     <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="159"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="139"/>
+      <c r="A26" s="152"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="138"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="140"/>
     </row>
     <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="159"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="139"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="143"/>
       <c r="D27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="138"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="140"/>
     </row>
     <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="159"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="139"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="143"/>
       <c r="D28" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="138"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="140"/>
     </row>
     <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="159"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="139"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="143"/>
       <c r="D29" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="138"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="149"/>
       <c r="J29" s="140"/>
     </row>
     <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="159"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="139"/>
+      <c r="A30" s="152"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="143"/>
       <c r="D30" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="138"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="149"/>
       <c r="J30" s="140"/>
     </row>
     <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="159"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="139"/>
+      <c r="A31" s="152"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="143"/>
       <c r="D31" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="138"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="149"/>
       <c r="J31" s="140"/>
     </row>
     <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="159"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="139"/>
+      <c r="A32" s="152"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="143"/>
       <c r="D32" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="138"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="149"/>
       <c r="J32" s="140"/>
     </row>
     <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="159"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="139"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="143"/>
       <c r="D33" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="138"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="149"/>
       <c r="J33" s="140"/>
     </row>
     <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="159"/>
-      <c r="B34" s="160"/>
-      <c r="C34" s="139"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="143"/>
       <c r="D34" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="138"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="149"/>
       <c r="J34" s="140"/>
     </row>
     <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="159"/>
-      <c r="B35" s="160"/>
-      <c r="C35" s="139"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="143"/>
       <c r="D35" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="138"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="149"/>
       <c r="J35" s="140"/>
     </row>
     <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -9052,7 +9093,7 @@
         <v>66</v>
       </c>
       <c r="I83" s="115"/>
-      <c r="J83" s="142" t="s">
+      <c r="J83" s="150" t="s">
         <v>67</v>
       </c>
     </row>
@@ -9078,7 +9119,7 @@
         <v>64</v>
       </c>
       <c r="I84" s="115"/>
-      <c r="J84" s="143"/>
+      <c r="J84" s="151"/>
     </row>
     <row r="85" spans="1:10" s="13" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
@@ -10371,28 +10412,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="H20:H35"/>
-    <mergeCell ref="J20:J35"/>
-    <mergeCell ref="I21:I35"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="E20:E35"/>
-    <mergeCell ref="F20:F35"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="G20:G35"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="E20:E35"/>
+    <mergeCell ref="F20:F35"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H20:H35"/>
+    <mergeCell ref="J20:J35"/>
+    <mergeCell ref="I21:I35"/>
+    <mergeCell ref="J83:J84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10403,7 +10444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
@@ -10569,7 +10610,7 @@
       <c r="I6" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="J6" s="142" t="s">
+      <c r="J6" s="150" t="s">
         <v>298</v>
       </c>
     </row>
@@ -10599,7 +10640,7 @@
       <c r="I7" s="112" t="s">
         <v>303</v>
       </c>
-      <c r="J7" s="143"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="111" t="s">
@@ -10716,28 +10757,28 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="172" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="139" t="s">
+      <c r="A12" s="174" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="F12" s="139" t="s">
+      <c r="F12" s="143" t="s">
         <v>319</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="G12" s="148" t="s">
         <v>319</v>
       </c>
-      <c r="H12" s="139" t="s">
+      <c r="H12" s="143" t="s">
         <v>320</v>
       </c>
       <c r="I12" s="112" t="s">
@@ -10748,14 +10789,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="172"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="139"/>
+      <c r="A13" s="174"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="143"/>
       <c r="I13" s="112" t="s">
         <v>323</v>
       </c>
@@ -10764,14 +10805,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="172"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="139"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="143"/>
       <c r="I14" s="112" t="s">
         <v>324</v>
       </c>
@@ -10780,14 +10821,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="172"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="139"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="112" t="s">
         <v>325</v>
       </c>
@@ -10796,68 +10837,68 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="168" t="s">
         <v>326</v>
       </c>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="171" t="s">
         <v>328</v>
       </c>
       <c r="D16" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="E16" s="156" t="s">
+      <c r="E16" s="160" t="s">
         <v>326</v>
       </c>
-      <c r="F16" s="156" t="s">
+      <c r="F16" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="164" t="s">
+      <c r="G16" s="163" t="s">
         <v>330</v>
       </c>
-      <c r="H16" s="156" t="s">
+      <c r="H16" s="160" t="s">
         <v>331</v>
       </c>
       <c r="I16" s="112" t="s">
         <v>332</v>
       </c>
-      <c r="J16" s="142" t="s">
+      <c r="J16" s="150" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="170"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="162"/>
+      <c r="A17" s="169"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="172"/>
       <c r="D17" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="157"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="161"/>
       <c r="I17" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="J17" s="168"/>
+      <c r="J17" s="167"/>
     </row>
     <row r="18" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="171"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="163"/>
+      <c r="A18" s="170"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="158"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="162"/>
       <c r="I18" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="J18" s="143"/>
+      <c r="J18" s="151"/>
     </row>
     <row r="19" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="111" t="s">
@@ -11057,7 +11098,7 @@
       <c r="I25" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="142" t="s">
+      <c r="J25" s="150" t="s">
         <v>370</v>
       </c>
     </row>
@@ -11085,7 +11126,7 @@
       <c r="I26" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="168"/>
+      <c r="J26" s="167"/>
     </row>
     <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="91" t="s">
@@ -11111,7 +11152,7 @@
       <c r="I27" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="168"/>
+      <c r="J27" s="167"/>
     </row>
     <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="91" t="s">
@@ -11137,7 +11178,7 @@
       <c r="I28" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="168"/>
+      <c r="J28" s="167"/>
     </row>
     <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="91" t="s">
@@ -11163,7 +11204,7 @@
       <c r="I29" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="168"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="113" t="s">
@@ -11189,7 +11230,7 @@
       <c r="I30" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="143"/>
+      <c r="J30" s="151"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="113" t="s">
@@ -11587,66 +11628,66 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="169" t="s">
+      <c r="A46" s="168" t="s">
         <v>326</v>
       </c>
-      <c r="B46" s="156" t="s">
+      <c r="B46" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="C46" s="161" t="s">
+      <c r="C46" s="171" t="s">
         <v>328</v>
       </c>
       <c r="D46" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="E46" s="156" t="s">
+      <c r="E46" s="160" t="s">
         <v>326</v>
       </c>
-      <c r="F46" s="156" t="s">
+      <c r="F46" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="G46" s="164"/>
-      <c r="H46" s="156" t="s">
+      <c r="G46" s="163"/>
+      <c r="H46" s="160" t="s">
         <v>331</v>
       </c>
       <c r="I46" s="112" t="s">
         <v>332</v>
       </c>
-      <c r="J46" s="142" t="s">
+      <c r="J46" s="150" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="170"/>
-      <c r="B47" s="157"/>
-      <c r="C47" s="162"/>
+      <c r="A47" s="169"/>
+      <c r="B47" s="161"/>
+      <c r="C47" s="172"/>
       <c r="D47" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="165"/>
-      <c r="H47" s="157"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="161"/>
       <c r="I47" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="J47" s="168"/>
+      <c r="J47" s="167"/>
     </row>
     <row r="48" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="171"/>
-      <c r="B48" s="158"/>
-      <c r="C48" s="163"/>
+      <c r="A48" s="170"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="173"/>
       <c r="D48" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E48" s="158"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="166"/>
-      <c r="H48" s="158"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="162"/>
       <c r="I48" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="J48" s="143"/>
+      <c r="J48" s="151"/>
     </row>
     <row r="49" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="87" t="s">
@@ -11779,7 +11820,7 @@
         <v>112</v>
       </c>
       <c r="I54" s="83"/>
-      <c r="J54" s="167" t="s">
+      <c r="J54" s="166" t="s">
         <v>333</v>
       </c>
     </row>
@@ -11807,7 +11848,7 @@
       <c r="I55" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J55" s="168"/>
+      <c r="J55" s="167"/>
     </row>
     <row r="56" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A56" s="84" t="s">
@@ -11833,7 +11874,7 @@
       <c r="I56" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="J56" s="143"/>
+      <c r="J56" s="151"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="84" t="s">
@@ -12050,7 +12091,7 @@
       <c r="G65" s="136"/>
       <c r="H65" s="76"/>
       <c r="I65" s="76"/>
-      <c r="J65" s="167" t="s">
+      <c r="J65" s="166" t="s">
         <v>351</v>
       </c>
     </row>
@@ -12076,7 +12117,7 @@
         <v>64</v>
       </c>
       <c r="I66" s="112"/>
-      <c r="J66" s="168"/>
+      <c r="J66" s="167"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="43" t="s">
@@ -12100,7 +12141,7 @@
         <v>413</v>
       </c>
       <c r="I67" s="112"/>
-      <c r="J67" s="143"/>
+      <c r="J67" s="151"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="43" t="s">
@@ -12633,7 +12674,7 @@
         <v>342</v>
       </c>
       <c r="I87" s="117"/>
-      <c r="J87" s="167" t="s">
+      <c r="J87" s="166" t="s">
         <v>439</v>
       </c>
     </row>
@@ -12659,7 +12700,7 @@
         <v>64</v>
       </c>
       <c r="I88" s="112"/>
-      <c r="J88" s="168"/>
+      <c r="J88" s="167"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="22" t="s">
@@ -12683,7 +12724,7 @@
         <v>413</v>
       </c>
       <c r="I89" s="112"/>
-      <c r="J89" s="143"/>
+      <c r="J89" s="151"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="22" t="s">
@@ -13061,11 +13102,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G18"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J38:J39"/>
     <mergeCell ref="J54:J56"/>
@@ -13082,16 +13128,11 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="J46:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13103,9 +13144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13113,7 +13154,8 @@
     <col min="1" max="2" width="25.1796875" style="27" customWidth="1"/>
     <col min="3" max="4" width="21.26953125" style="27" customWidth="1"/>
     <col min="5" max="5" width="25.1796875" style="27" customWidth="1"/>
-    <col min="6" max="7" width="37" style="27" customWidth="1"/>
+    <col min="6" max="6" width="37" style="27" customWidth="1"/>
+    <col min="7" max="7" width="37" style="124" customWidth="1"/>
     <col min="8" max="9" width="21.26953125" style="27" customWidth="1"/>
     <col min="10" max="10" width="52" style="63" customWidth="1"/>
     <col min="11" max="16384" width="8.81640625" style="27"/>
@@ -13130,7 +13172,7 @@
         <v>53</v>
       </c>
       <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="G1" s="131"/>
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
       <c r="J1" s="69"/>
@@ -13154,7 +13196,7 @@
       <c r="F2" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="119" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="107" t="s">
@@ -13182,7 +13224,9 @@
       <c r="F3" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="G3" s="93"/>
+      <c r="G3" s="178" t="s">
+        <v>715</v>
+      </c>
       <c r="H3" s="93"/>
       <c r="I3" s="93"/>
       <c r="J3" s="117" t="s">
@@ -13206,12 +13250,14 @@
       <c r="F4" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="112"/>
+      <c r="G4" s="179" t="s">
+        <v>714</v>
+      </c>
       <c r="H4" s="112" t="s">
         <v>66</v>
       </c>
       <c r="I4" s="112"/>
-      <c r="J4" s="173" t="s">
+      <c r="J4" s="175" t="s">
         <v>67</v>
       </c>
     </row>
@@ -13232,12 +13278,14 @@
       <c r="F5" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="110"/>
+      <c r="G5" s="139" t="s">
+        <v>700</v>
+      </c>
       <c r="H5" s="112" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="112"/>
-      <c r="J5" s="173"/>
+      <c r="J5" s="175"/>
     </row>
     <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="110" t="s">
@@ -13256,7 +13304,9 @@
       <c r="F6" s="112" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="112"/>
+      <c r="G6" s="179" t="s">
+        <v>713</v>
+      </c>
       <c r="H6" s="112" t="s">
         <v>88</v>
       </c>
@@ -13268,13 +13318,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="160" t="s">
         <v>462</v>
       </c>
       <c r="D7" s="112" t="s">
@@ -13286,21 +13336,23 @@
       <c r="F7" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="112"/>
+      <c r="G7" s="179" t="s">
+        <v>716</v>
+      </c>
       <c r="H7" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I7" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="142" t="s">
+      <c r="J7" s="150" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="175"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="112" t="s">
         <v>465</v>
       </c>
@@ -13310,14 +13362,16 @@
       <c r="F8" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="179" t="s">
+        <v>101</v>
+      </c>
       <c r="H8" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I8" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="143"/>
+      <c r="J8" s="151"/>
     </row>
     <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="110" t="s">
@@ -13336,7 +13390,9 @@
       <c r="F9" s="112" t="s">
         <v>304</v>
       </c>
-      <c r="G9" s="112"/>
+      <c r="G9" s="138" t="s">
+        <v>717</v>
+      </c>
       <c r="H9" s="112" t="s">
         <v>81</v>
       </c>
@@ -13362,7 +13418,9 @@
       <c r="F10" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="G10" s="112"/>
+      <c r="G10" s="138" t="s">
+        <v>718</v>
+      </c>
       <c r="H10" s="112" t="s">
         <v>81</v>
       </c>
@@ -13388,7 +13446,9 @@
       <c r="F11" s="112" t="s">
         <v>312</v>
       </c>
-      <c r="G11" s="112"/>
+      <c r="G11" s="138" t="s">
+        <v>719</v>
+      </c>
       <c r="H11" s="112" t="s">
         <v>81</v>
       </c>
@@ -13414,7 +13474,7 @@
       <c r="F12" s="112" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="112"/>
+      <c r="G12" s="138"/>
       <c r="H12" s="112" t="s">
         <v>71</v>
       </c>
@@ -13444,7 +13504,7 @@
       <c r="F13" s="112" t="s">
         <v>474</v>
       </c>
-      <c r="G13" s="112"/>
+      <c r="G13" s="138"/>
       <c r="H13" s="112" t="s">
         <v>112</v>
       </c>
@@ -13456,66 +13516,66 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="168" t="s">
         <v>326</v>
       </c>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="171" t="s">
         <v>328</v>
       </c>
       <c r="D14" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="E14" s="160" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="156" t="s">
+      <c r="F14" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156" t="s">
+      <c r="G14" s="163"/>
+      <c r="H14" s="160" t="s">
         <v>331</v>
       </c>
       <c r="I14" s="112" t="s">
         <v>332</v>
       </c>
-      <c r="J14" s="142" t="s">
+      <c r="J14" s="150" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="170"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="162"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="172"/>
       <c r="D15" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="161"/>
       <c r="I15" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="J15" s="168"/>
+      <c r="J15" s="167"/>
     </row>
     <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="171"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="163"/>
+      <c r="A16" s="170"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="162"/>
       <c r="I16" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="J16" s="143"/>
+      <c r="J16" s="151"/>
     </row>
     <row r="17" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
@@ -13536,7 +13596,7 @@
       <c r="F17" s="112" t="s">
         <v>349</v>
       </c>
-      <c r="G17" s="112"/>
+      <c r="G17" s="138"/>
       <c r="H17" s="112" t="s">
         <v>71</v>
       </c>
@@ -13564,7 +13624,7 @@
       <c r="F18" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="112"/>
+      <c r="G18" s="138"/>
       <c r="H18" s="112" t="s">
         <v>101</v>
       </c>
@@ -13594,7 +13654,7 @@
       <c r="F19" s="112" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="112"/>
+      <c r="G19" s="138"/>
       <c r="H19" s="112" t="s">
         <v>342</v>
       </c>
@@ -13622,7 +13682,7 @@
       <c r="F20" s="112" t="s">
         <v>358</v>
       </c>
-      <c r="G20" s="112"/>
+      <c r="G20" s="138"/>
       <c r="H20" s="112" t="s">
         <v>235</v>
       </c>
@@ -13650,7 +13710,7 @@
       <c r="F21" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="121"/>
       <c r="H21" s="14" t="s">
         <v>232</v>
       </c>
@@ -13678,7 +13738,7 @@
       <c r="F22" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="121"/>
       <c r="H22" s="14" t="s">
         <v>235</v>
       </c>
@@ -13706,14 +13766,14 @@
       <c r="F23" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="14" t="s">
         <v>101</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="173" t="s">
+      <c r="J23" s="175" t="s">
         <v>500</v>
       </c>
     </row>
@@ -13736,14 +13796,14 @@
       <c r="F24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="121"/>
       <c r="H24" s="14" t="s">
         <v>101</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="173"/>
+      <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="91" t="s">
@@ -13764,14 +13824,14 @@
       <c r="F25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="121"/>
       <c r="H25" s="14" t="s">
         <v>101</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="173"/>
+      <c r="J25" s="175"/>
     </row>
     <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
@@ -13792,7 +13852,7 @@
       <c r="F26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="121"/>
       <c r="H26" s="14" t="s">
         <v>101</v>
       </c>
@@ -13820,7 +13880,7 @@
       <c r="F27" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="121"/>
       <c r="H27" s="14" t="s">
         <v>101</v>
       </c>
@@ -13848,7 +13908,7 @@
       <c r="F28" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="121"/>
       <c r="H28" s="14" t="s">
         <v>101</v>
       </c>
@@ -13878,7 +13938,7 @@
       <c r="F29" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="121"/>
       <c r="H29" s="14" t="s">
         <v>101</v>
       </c>
@@ -13908,7 +13968,7 @@
       <c r="F30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="121"/>
       <c r="H30" s="14" t="s">
         <v>101</v>
       </c>
@@ -13938,7 +13998,7 @@
       <c r="F31" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="121"/>
       <c r="H31" s="14" t="s">
         <v>101</v>
       </c>
@@ -13968,7 +14028,7 @@
       <c r="F32" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="121"/>
       <c r="H32" s="14" t="s">
         <v>101</v>
       </c>
@@ -13998,7 +14058,7 @@
       <c r="F33" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="121"/>
       <c r="H33" s="14" t="s">
         <v>101</v>
       </c>
@@ -14028,7 +14088,7 @@
       <c r="F34" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="121"/>
       <c r="H34" s="14" t="s">
         <v>101</v>
       </c>
@@ -14053,7 +14113,7 @@
         <v>160</v>
       </c>
       <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="G36" s="126"/>
       <c r="H36" s="31"/>
       <c r="I36" s="32"/>
       <c r="J36" s="62" t="s">
@@ -14077,12 +14137,12 @@
       <c r="F37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="14"/>
+      <c r="G37" s="121"/>
       <c r="H37" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I37" s="115"/>
-      <c r="J37" s="142" t="s">
+      <c r="J37" s="150" t="s">
         <v>67</v>
       </c>
     </row>
@@ -14103,12 +14163,12 @@
       <c r="F38" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="16"/>
+      <c r="G38" s="122"/>
       <c r="H38" s="14" t="s">
         <v>64</v>
       </c>
       <c r="I38" s="115"/>
-      <c r="J38" s="143"/>
+      <c r="J38" s="151"/>
     </row>
     <row r="39" spans="1:10" s="13" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
@@ -14127,7 +14187,7 @@
       <c r="F39" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="G39" s="121"/>
       <c r="H39" s="14" t="s">
         <v>528</v>
       </c>
@@ -14153,7 +14213,7 @@
       <c r="F40" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="14"/>
+      <c r="G40" s="121"/>
       <c r="H40" s="14" t="s">
         <v>79</v>
       </c>
@@ -14177,7 +14237,7 @@
       <c r="F41" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="14"/>
+      <c r="G41" s="121"/>
       <c r="H41" s="14" t="s">
         <v>71</v>
       </c>
@@ -14205,7 +14265,7 @@
       <c r="F42" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G42" s="14"/>
+      <c r="G42" s="121"/>
       <c r="H42" s="14" t="s">
         <v>112</v>
       </c>
@@ -14231,7 +14291,7 @@
       <c r="F43" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="17"/>
+      <c r="G43" s="121"/>
       <c r="H43" s="17" t="s">
         <v>101</v>
       </c>
@@ -14259,7 +14319,7 @@
       <c r="F44" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="17"/>
+      <c r="G44" s="121"/>
       <c r="H44" s="17" t="s">
         <v>101</v>
       </c>
@@ -14287,7 +14347,7 @@
       <c r="F45" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="17"/>
+      <c r="G45" s="121"/>
       <c r="H45" s="17" t="s">
         <v>101</v>
       </c>
@@ -14315,7 +14375,7 @@
       <c r="F46" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="17"/>
+      <c r="G46" s="121"/>
       <c r="H46" s="17" t="s">
         <v>101</v>
       </c>
@@ -14343,7 +14403,7 @@
       <c r="F47" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="17"/>
+      <c r="G47" s="121"/>
       <c r="H47" s="17" t="s">
         <v>101</v>
       </c>
@@ -14371,7 +14431,7 @@
       <c r="F48" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="17"/>
+      <c r="G48" s="121"/>
       <c r="H48" s="17" t="s">
         <v>101</v>
       </c>
@@ -14399,7 +14459,7 @@
       <c r="F49" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="121"/>
       <c r="H49" s="17" t="s">
         <v>101</v>
       </c>
@@ -14427,7 +14487,7 @@
       <c r="F50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="17"/>
+      <c r="G50" s="121"/>
       <c r="H50" s="17" t="s">
         <v>101</v>
       </c>
@@ -14455,7 +14515,7 @@
       <c r="F51" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="38"/>
+      <c r="G51" s="123"/>
       <c r="H51" s="38" t="s">
         <v>101</v>
       </c>
@@ -14473,7 +14533,7 @@
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
+      <c r="G52" s="124"/>
       <c r="H52" s="27"/>
       <c r="I52" s="28"/>
       <c r="J52" s="63"/>
@@ -14493,7 +14553,7 @@
       <c r="F53" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="126"/>
       <c r="H53" s="31"/>
       <c r="I53" s="32"/>
       <c r="J53" s="62"/>
@@ -14515,7 +14575,7 @@
       <c r="F54" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G54" s="23"/>
+      <c r="G54" s="128"/>
       <c r="H54" s="14" t="s">
         <v>64</v>
       </c>
@@ -14541,7 +14601,7 @@
       <c r="F55" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="23"/>
+      <c r="G55" s="128"/>
       <c r="H55" s="14" t="s">
         <v>79</v>
       </c>
@@ -14569,7 +14629,7 @@
       <c r="F56" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="G56" s="14"/>
+      <c r="G56" s="121"/>
       <c r="H56" s="14" t="s">
         <v>112</v>
       </c>
@@ -14597,7 +14657,7 @@
       <c r="F57" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="17"/>
+      <c r="G57" s="121"/>
       <c r="H57" s="17" t="s">
         <v>101</v>
       </c>
@@ -14625,7 +14685,7 @@
       <c r="F58" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="121"/>
       <c r="H58" s="17" t="s">
         <v>101</v>
       </c>
@@ -14653,7 +14713,7 @@
       <c r="F59" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G59" s="17"/>
+      <c r="G59" s="121"/>
       <c r="H59" s="17" t="s">
         <v>101</v>
       </c>
@@ -14681,7 +14741,7 @@
       <c r="F60" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G60" s="17"/>
+      <c r="G60" s="121"/>
       <c r="H60" s="17" t="s">
         <v>101</v>
       </c>
@@ -14709,7 +14769,7 @@
       <c r="F61" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="17"/>
+      <c r="G61" s="121"/>
       <c r="H61" s="17" t="s">
         <v>101</v>
       </c>
@@ -14737,7 +14797,7 @@
       <c r="F62" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G62" s="17"/>
+      <c r="G62" s="121"/>
       <c r="H62" s="17" t="s">
         <v>101</v>
       </c>
@@ -14765,7 +14825,7 @@
       <c r="F63" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G63" s="17"/>
+      <c r="G63" s="121"/>
       <c r="H63" s="17" t="s">
         <v>101</v>
       </c>
@@ -14793,7 +14853,7 @@
       <c r="F64" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="17"/>
+      <c r="G64" s="121"/>
       <c r="H64" s="17" t="s">
         <v>101</v>
       </c>
@@ -14821,7 +14881,7 @@
       <c r="F65" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G65" s="17"/>
+      <c r="G65" s="121"/>
       <c r="H65" s="17" t="s">
         <v>101</v>
       </c>
@@ -14849,7 +14909,7 @@
       <c r="F66" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G66" s="38"/>
+      <c r="G66" s="123"/>
       <c r="H66" s="38" t="s">
         <v>101</v>
       </c>
@@ -14867,7 +14927,7 @@
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
+      <c r="G67" s="124"/>
       <c r="H67" s="27"/>
       <c r="I67" s="28"/>
       <c r="J67" s="63"/>
@@ -14887,7 +14947,7 @@
       <c r="F68" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="G68" s="30"/>
+      <c r="G68" s="126"/>
       <c r="H68" s="31" t="s">
         <v>112</v>
       </c>
@@ -14915,7 +14975,7 @@
       <c r="F69" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G69" s="17"/>
+      <c r="G69" s="121"/>
       <c r="H69" s="17" t="s">
         <v>101</v>
       </c>
@@ -14943,7 +15003,7 @@
       <c r="F70" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="17"/>
+      <c r="G70" s="121"/>
       <c r="H70" s="17" t="s">
         <v>101</v>
       </c>
@@ -14971,7 +15031,7 @@
       <c r="F71" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="17"/>
+      <c r="G71" s="121"/>
       <c r="H71" s="17" t="s">
         <v>101</v>
       </c>
@@ -14999,7 +15059,7 @@
       <c r="F72" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="17"/>
+      <c r="G72" s="121"/>
       <c r="H72" s="17" t="s">
         <v>101</v>
       </c>
@@ -15027,7 +15087,7 @@
       <c r="F73" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="17"/>
+      <c r="G73" s="121"/>
       <c r="H73" s="17" t="s">
         <v>101</v>
       </c>
@@ -15055,7 +15115,7 @@
       <c r="F74" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G74" s="17"/>
+      <c r="G74" s="121"/>
       <c r="H74" s="17" t="s">
         <v>101</v>
       </c>
@@ -15083,7 +15143,7 @@
       <c r="F75" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G75" s="17"/>
+      <c r="G75" s="121"/>
       <c r="H75" s="17" t="s">
         <v>101</v>
       </c>
@@ -15111,7 +15171,7 @@
       <c r="F76" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="17"/>
+      <c r="G76" s="121"/>
       <c r="H76" s="17" t="s">
         <v>101</v>
       </c>
@@ -15139,7 +15199,7 @@
       <c r="F77" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G77" s="38"/>
+      <c r="G77" s="123"/>
       <c r="H77" s="38" t="s">
         <v>101</v>
       </c>
@@ -15157,7 +15217,7 @@
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
       <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
+      <c r="G78" s="124"/>
       <c r="H78" s="27"/>
       <c r="I78" s="28"/>
       <c r="J78" s="63"/>
@@ -15177,7 +15237,7 @@
       <c r="F79" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="G79" s="97"/>
+      <c r="G79" s="126"/>
       <c r="H79" s="97" t="s">
         <v>101</v>
       </c>
@@ -15205,7 +15265,7 @@
       <c r="F80" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G80" s="17"/>
+      <c r="G80" s="121"/>
       <c r="H80" s="17" t="s">
         <v>101</v>
       </c>
@@ -15233,7 +15293,7 @@
       <c r="F81" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G81" s="17"/>
+      <c r="G81" s="121"/>
       <c r="H81" s="17" t="s">
         <v>101</v>
       </c>
@@ -15261,7 +15321,7 @@
       <c r="F82" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G82" s="17"/>
+      <c r="G82" s="121"/>
       <c r="H82" s="17" t="s">
         <v>101</v>
       </c>
@@ -15289,7 +15349,7 @@
       <c r="F83" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G83" s="17"/>
+      <c r="G83" s="121"/>
       <c r="H83" s="17" t="s">
         <v>101</v>
       </c>
@@ -15317,7 +15377,7 @@
       <c r="F84" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G84" s="17"/>
+      <c r="G84" s="121"/>
       <c r="H84" s="17" t="s">
         <v>101</v>
       </c>
@@ -15345,7 +15405,7 @@
       <c r="F85" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G85" s="17"/>
+      <c r="G85" s="121"/>
       <c r="H85" s="17" t="s">
         <v>101</v>
       </c>
@@ -15373,7 +15433,7 @@
       <c r="F86" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G86" s="17"/>
+      <c r="G86" s="121"/>
       <c r="H86" s="17" t="s">
         <v>101</v>
       </c>
@@ -15401,7 +15461,7 @@
       <c r="F87" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G87" s="38"/>
+      <c r="G87" s="123"/>
       <c r="H87" s="38" t="s">
         <v>101</v>
       </c>
@@ -15428,12 +15488,12 @@
         <v>326</v>
       </c>
       <c r="F89" s="76"/>
-      <c r="G89" s="76"/>
+      <c r="G89" s="136"/>
       <c r="H89" s="76" t="s">
         <v>112</v>
       </c>
       <c r="I89" s="83"/>
-      <c r="J89" s="167" t="s">
+      <c r="J89" s="166" t="s">
         <v>333</v>
       </c>
     </row>
@@ -15454,14 +15514,14 @@
       <c r="F90" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G90" s="112"/>
+      <c r="G90" s="138"/>
       <c r="H90" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I90" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J90" s="168"/>
+      <c r="J90" s="167"/>
     </row>
     <row r="91" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A91" s="84" t="s">
@@ -15480,14 +15540,14 @@
       <c r="F91" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G91" s="112"/>
+      <c r="G91" s="138"/>
       <c r="H91" s="112" t="s">
         <v>101</v>
       </c>
       <c r="I91" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="J91" s="143"/>
+      <c r="J91" s="151"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="84" t="s">
@@ -15506,7 +15566,7 @@
       <c r="F92" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="112"/>
+      <c r="G92" s="138"/>
       <c r="H92" s="112" t="s">
         <v>101</v>
       </c>
@@ -15534,7 +15594,7 @@
       <c r="F93" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G93" s="112"/>
+      <c r="G93" s="138"/>
       <c r="H93" s="112" t="s">
         <v>101</v>
       </c>
@@ -15562,7 +15622,7 @@
       <c r="F94" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G94" s="112"/>
+      <c r="G94" s="138"/>
       <c r="H94" s="112" t="s">
         <v>101</v>
       </c>
@@ -15590,7 +15650,7 @@
       <c r="F95" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G95" s="112"/>
+      <c r="G95" s="138"/>
       <c r="H95" s="112" t="s">
         <v>101</v>
       </c>
@@ -15618,7 +15678,7 @@
       <c r="F96" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G96" s="112"/>
+      <c r="G96" s="138"/>
       <c r="H96" s="112" t="s">
         <v>101</v>
       </c>
@@ -15646,7 +15706,7 @@
       <c r="F97" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G97" s="112"/>
+      <c r="G97" s="138"/>
       <c r="H97" s="112" t="s">
         <v>101</v>
       </c>
@@ -15674,7 +15734,7 @@
       <c r="F98" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="G98" s="78"/>
+      <c r="G98" s="133"/>
       <c r="H98" s="78" t="s">
         <v>101</v>
       </c>
@@ -15703,10 +15763,10 @@
       <c r="F100" s="76" t="s">
         <v>412</v>
       </c>
-      <c r="G100" s="76"/>
+      <c r="G100" s="136"/>
       <c r="H100" s="76"/>
       <c r="I100" s="76"/>
-      <c r="J100" s="167" t="s">
+      <c r="J100" s="166" t="s">
         <v>351</v>
       </c>
     </row>
@@ -15727,12 +15787,12 @@
       <c r="F101" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G101" s="23"/>
+      <c r="G101" s="128"/>
       <c r="H101" s="112" t="s">
         <v>64</v>
       </c>
       <c r="I101" s="112"/>
-      <c r="J101" s="168"/>
+      <c r="J101" s="167"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="43" t="s">
@@ -15751,12 +15811,12 @@
       <c r="F102" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="G102" s="112"/>
+      <c r="G102" s="138"/>
       <c r="H102" s="112" t="s">
         <v>413</v>
       </c>
       <c r="I102" s="112"/>
-      <c r="J102" s="143"/>
+      <c r="J102" s="151"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="43" t="s">
@@ -15775,7 +15835,7 @@
       <c r="F103" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G103" s="112"/>
+      <c r="G103" s="138"/>
       <c r="H103" s="112" t="s">
         <v>101</v>
       </c>
@@ -15803,7 +15863,7 @@
       <c r="F104" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G104" s="112"/>
+      <c r="G104" s="138"/>
       <c r="H104" s="112" t="s">
         <v>101</v>
       </c>
@@ -15831,7 +15891,7 @@
       <c r="F105" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G105" s="112"/>
+      <c r="G105" s="138"/>
       <c r="H105" s="112" t="s">
         <v>101</v>
       </c>
@@ -15859,7 +15919,7 @@
       <c r="F106" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G106" s="112"/>
+      <c r="G106" s="138"/>
       <c r="H106" s="112" t="s">
         <v>101</v>
       </c>
@@ -15887,7 +15947,7 @@
       <c r="F107" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="112"/>
+      <c r="G107" s="138"/>
       <c r="H107" s="112" t="s">
         <v>101</v>
       </c>
@@ -15915,7 +15975,7 @@
       <c r="F108" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G108" s="112"/>
+      <c r="G108" s="138"/>
       <c r="H108" s="112" t="s">
         <v>101</v>
       </c>
@@ -15943,7 +16003,7 @@
       <c r="F109" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G109" s="112"/>
+      <c r="G109" s="138"/>
       <c r="H109" s="112" t="s">
         <v>101</v>
       </c>
@@ -15973,7 +16033,7 @@
       <c r="F110" s="112" t="s">
         <v>415</v>
       </c>
-      <c r="G110" s="112"/>
+      <c r="G110" s="138"/>
       <c r="H110" s="74" t="s">
         <v>75</v>
       </c>
@@ -16001,7 +16061,7 @@
       <c r="F111" s="112" t="s">
         <v>417</v>
       </c>
-      <c r="G111" s="112"/>
+      <c r="G111" s="138"/>
       <c r="H111" s="112" t="s">
         <v>71</v>
       </c>
@@ -16031,7 +16091,7 @@
       <c r="F112" s="112" t="s">
         <v>345</v>
       </c>
-      <c r="G112" s="112"/>
+      <c r="G112" s="138"/>
       <c r="H112" s="112" t="s">
         <v>71</v>
       </c>
@@ -16061,7 +16121,7 @@
       <c r="F113" s="112" t="s">
         <v>422</v>
       </c>
-      <c r="G113" s="112"/>
+      <c r="G113" s="138"/>
       <c r="H113" s="112" t="s">
         <v>423</v>
       </c>
@@ -16089,7 +16149,7 @@
       <c r="F114" s="112" t="s">
         <v>424</v>
       </c>
-      <c r="G114" s="112"/>
+      <c r="G114" s="138"/>
       <c r="H114" s="74" t="s">
         <v>75</v>
       </c>
@@ -16117,7 +16177,7 @@
       <c r="F115" s="112" t="s">
         <v>426</v>
       </c>
-      <c r="G115" s="112"/>
+      <c r="G115" s="138"/>
       <c r="H115" s="112" t="s">
         <v>427</v>
       </c>
@@ -16145,7 +16205,7 @@
       <c r="F116" s="112" t="s">
         <v>429</v>
       </c>
-      <c r="G116" s="112"/>
+      <c r="G116" s="138"/>
       <c r="H116" s="112" t="s">
         <v>423</v>
       </c>
@@ -16173,7 +16233,7 @@
       <c r="F117" s="112" t="s">
         <v>431</v>
       </c>
-      <c r="G117" s="112"/>
+      <c r="G117" s="138"/>
       <c r="H117" s="74" t="s">
         <v>75</v>
       </c>
@@ -16201,7 +16261,7 @@
       <c r="F118" s="112" t="s">
         <v>433</v>
       </c>
-      <c r="G118" s="112"/>
+      <c r="G118" s="138"/>
       <c r="H118" s="74" t="s">
         <v>75</v>
       </c>
@@ -16229,7 +16289,7 @@
       <c r="F119" s="112" t="s">
         <v>435</v>
       </c>
-      <c r="G119" s="112"/>
+      <c r="G119" s="138"/>
       <c r="H119" s="74" t="s">
         <v>75</v>
       </c>
@@ -16257,7 +16317,7 @@
       <c r="F120" s="78" t="s">
         <v>437</v>
       </c>
-      <c r="G120" s="78"/>
+      <c r="G120" s="133"/>
       <c r="H120" s="79" t="s">
         <v>75</v>
       </c>
@@ -16273,7 +16333,7 @@
       <c r="D121" s="73"/>
       <c r="E121" s="73"/>
       <c r="F121" s="73"/>
-      <c r="G121" s="73"/>
+      <c r="G121" s="134"/>
       <c r="H121" s="73"/>
       <c r="I121" s="73"/>
       <c r="J121" s="69"/>
@@ -16295,12 +16355,12 @@
       <c r="F122" s="117" t="s">
         <v>341</v>
       </c>
-      <c r="G122" s="117"/>
+      <c r="G122" s="137"/>
       <c r="H122" s="117" t="s">
         <v>342</v>
       </c>
       <c r="I122" s="117"/>
-      <c r="J122" s="167" t="s">
+      <c r="J122" s="166" t="s">
         <v>439</v>
       </c>
     </row>
@@ -16321,12 +16381,12 @@
       <c r="F123" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G123" s="23"/>
+      <c r="G123" s="128"/>
       <c r="H123" s="112" t="s">
         <v>64</v>
       </c>
       <c r="I123" s="112"/>
-      <c r="J123" s="168"/>
+      <c r="J123" s="167"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
@@ -16345,12 +16405,12 @@
       <c r="F124" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="G124" s="112"/>
+      <c r="G124" s="138"/>
       <c r="H124" s="112" t="s">
         <v>413</v>
       </c>
       <c r="I124" s="112"/>
-      <c r="J124" s="143"/>
+      <c r="J124" s="151"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="23" t="s">
@@ -16369,7 +16429,7 @@
       <c r="F125" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G125" s="112"/>
+      <c r="G125" s="138"/>
       <c r="H125" s="112" t="s">
         <v>101</v>
       </c>
@@ -16397,7 +16457,7 @@
       <c r="F126" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G126" s="112"/>
+      <c r="G126" s="138"/>
       <c r="H126" s="112" t="s">
         <v>101</v>
       </c>
@@ -16425,7 +16485,7 @@
       <c r="F127" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G127" s="112"/>
+      <c r="G127" s="138"/>
       <c r="H127" s="112" t="s">
         <v>101</v>
       </c>
@@ -16453,7 +16513,7 @@
       <c r="F128" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G128" s="112"/>
+      <c r="G128" s="138"/>
       <c r="H128" s="112" t="s">
         <v>101</v>
       </c>
@@ -16481,7 +16541,7 @@
       <c r="F129" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G129" s="112"/>
+      <c r="G129" s="138"/>
       <c r="H129" s="112" t="s">
         <v>101</v>
       </c>
@@ -16509,7 +16569,7 @@
       <c r="F130" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G130" s="112"/>
+      <c r="G130" s="138"/>
       <c r="H130" s="112" t="s">
         <v>101</v>
       </c>
@@ -16539,7 +16599,7 @@
       <c r="F131" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G131" s="112"/>
+      <c r="G131" s="138"/>
       <c r="H131" s="112" t="s">
         <v>101</v>
       </c>
@@ -16567,7 +16627,7 @@
       <c r="F132" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G132" s="112"/>
+      <c r="G132" s="138"/>
       <c r="H132" s="112" t="s">
         <v>101</v>
       </c>
@@ -16597,7 +16657,7 @@
       <c r="F133" s="112" t="s">
         <v>447</v>
       </c>
-      <c r="G133" s="112"/>
+      <c r="G133" s="138"/>
       <c r="H133" s="112" t="s">
         <v>112</v>
       </c>
@@ -16627,7 +16687,7 @@
       <c r="F134" s="112" t="s">
         <v>450</v>
       </c>
-      <c r="G134" s="112"/>
+      <c r="G134" s="138"/>
       <c r="H134" s="112" t="s">
         <v>71</v>
       </c>
@@ -16657,7 +16717,7 @@
       <c r="F135" s="112" t="s">
         <v>452</v>
       </c>
-      <c r="G135" s="112"/>
+      <c r="G135" s="138"/>
       <c r="H135" s="112" t="s">
         <v>183</v>
       </c>
@@ -16685,7 +16745,7 @@
       <c r="F136" s="112" t="s">
         <v>454</v>
       </c>
-      <c r="G136" s="112"/>
+      <c r="G136" s="138"/>
       <c r="H136" s="112" t="s">
         <v>71</v>
       </c>
@@ -16715,7 +16775,7 @@
       <c r="F137" s="112" t="s">
         <v>456</v>
       </c>
-      <c r="G137" s="112"/>
+      <c r="G137" s="138"/>
       <c r="H137" s="112" t="s">
         <v>71</v>
       </c>
@@ -16746,7 +16806,7 @@
       <c r="F139" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="G139" s="117"/>
+      <c r="G139" s="137"/>
       <c r="H139" s="117" t="s">
         <v>101</v>
       </c>
@@ -16774,7 +16834,7 @@
       <c r="F140" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G140" s="112"/>
+      <c r="G140" s="138"/>
       <c r="H140" s="112" t="s">
         <v>101</v>
       </c>
@@ -16802,7 +16862,7 @@
       <c r="F141" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G141" s="112"/>
+      <c r="G141" s="138"/>
       <c r="H141" s="112" t="s">
         <v>101</v>
       </c>
@@ -16830,7 +16890,7 @@
       <c r="F142" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G142" s="112"/>
+      <c r="G142" s="138"/>
       <c r="H142" s="112" t="s">
         <v>101</v>
       </c>
@@ -16858,7 +16918,7 @@
       <c r="F143" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G143" s="112"/>
+      <c r="G143" s="138"/>
       <c r="H143" s="112" t="s">
         <v>101</v>
       </c>
@@ -16886,7 +16946,7 @@
       <c r="F144" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G144" s="112"/>
+      <c r="G144" s="138"/>
       <c r="H144" s="112" t="s">
         <v>101</v>
       </c>
@@ -16914,7 +16974,7 @@
       <c r="F145" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G145" s="112"/>
+      <c r="G145" s="138"/>
       <c r="H145" s="112" t="s">
         <v>101</v>
       </c>
@@ -16942,7 +17002,7 @@
       <c r="F146" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G146" s="112"/>
+      <c r="G146" s="138"/>
       <c r="H146" s="112" t="s">
         <v>101</v>
       </c>
@@ -16970,7 +17030,7 @@
       <c r="F147" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G147" s="112"/>
+      <c r="G147" s="138"/>
       <c r="H147" s="112" t="s">
         <v>101</v>
       </c>
@@ -16999,7 +17059,7 @@
       <c r="F149" s="117" t="s">
         <v>474</v>
       </c>
-      <c r="G149" s="117"/>
+      <c r="G149" s="137"/>
       <c r="H149" s="117" t="s">
         <v>112</v>
       </c>
@@ -17027,7 +17087,7 @@
       <c r="F150" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G150" s="112"/>
+      <c r="G150" s="138"/>
       <c r="H150" s="112" t="s">
         <v>101</v>
       </c>
@@ -17055,7 +17115,7 @@
       <c r="F151" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G151" s="112"/>
+      <c r="G151" s="138"/>
       <c r="H151" s="112" t="s">
         <v>101</v>
       </c>
@@ -17083,7 +17143,7 @@
       <c r="F152" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G152" s="112"/>
+      <c r="G152" s="138"/>
       <c r="H152" s="112" t="s">
         <v>101</v>
       </c>
@@ -17111,7 +17171,7 @@
       <c r="F153" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G153" s="112"/>
+      <c r="G153" s="138"/>
       <c r="H153" s="112" t="s">
         <v>101</v>
       </c>
@@ -17139,7 +17199,7 @@
       <c r="F154" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G154" s="112"/>
+      <c r="G154" s="138"/>
       <c r="H154" s="112" t="s">
         <v>101</v>
       </c>
@@ -17167,7 +17227,7 @@
       <c r="F155" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G155" s="112"/>
+      <c r="G155" s="138"/>
       <c r="H155" s="112" t="s">
         <v>101</v>
       </c>
@@ -17195,7 +17255,7 @@
       <c r="F156" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G156" s="112"/>
+      <c r="G156" s="138"/>
       <c r="H156" s="112" t="s">
         <v>101</v>
       </c>
@@ -17223,7 +17283,7 @@
       <c r="F157" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G157" s="112"/>
+      <c r="G157" s="138"/>
       <c r="H157" s="112" t="s">
         <v>101</v>
       </c>
@@ -17251,7 +17311,7 @@
       <c r="F159" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G159" s="112"/>
+      <c r="G159" s="138"/>
       <c r="H159" s="112" t="s">
         <v>101</v>
       </c>
@@ -17277,7 +17337,7 @@
       <c r="F160" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G160" s="112"/>
+      <c r="G160" s="138"/>
       <c r="H160" s="112" t="s">
         <v>101</v>
       </c>
@@ -17303,7 +17363,7 @@
       <c r="F161" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="G161" s="14"/>
+      <c r="G161" s="121"/>
       <c r="H161" s="14" t="s">
         <v>235</v>
       </c>
@@ -17329,7 +17389,7 @@
       <c r="F162" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G162" s="112"/>
+      <c r="G162" s="138"/>
       <c r="H162" s="112" t="s">
         <v>101</v>
       </c>
@@ -17357,7 +17417,7 @@
       <c r="F163" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G163" s="112"/>
+      <c r="G163" s="138"/>
       <c r="H163" s="112" t="s">
         <v>101</v>
       </c>
@@ -17385,7 +17445,7 @@
       <c r="F164" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G164" s="112"/>
+      <c r="G164" s="138"/>
       <c r="H164" s="112" t="s">
         <v>101</v>
       </c>
@@ -17413,7 +17473,7 @@
       <c r="F165" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G165" s="112"/>
+      <c r="G165" s="138"/>
       <c r="H165" s="112" t="s">
         <v>101</v>
       </c>
@@ -17441,7 +17501,7 @@
       <c r="F166" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G166" s="112"/>
+      <c r="G166" s="138"/>
       <c r="H166" s="112" t="s">
         <v>101</v>
       </c>
@@ -17469,7 +17529,7 @@
       <c r="F167" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G167" s="112"/>
+      <c r="G167" s="138"/>
       <c r="H167" s="112" t="s">
         <v>101</v>
       </c>
@@ -17497,7 +17557,7 @@
       <c r="F168" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G168" s="112"/>
+      <c r="G168" s="138"/>
       <c r="H168" s="112" t="s">
         <v>101</v>
       </c>
@@ -17525,7 +17585,7 @@
       <c r="F169" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G169" s="112"/>
+      <c r="G169" s="138"/>
       <c r="H169" s="112" t="s">
         <v>101</v>
       </c>
@@ -17555,7 +17615,7 @@
       <c r="F171" s="117" t="s">
         <v>540</v>
       </c>
-      <c r="G171" s="117"/>
+      <c r="G171" s="137"/>
       <c r="H171" s="117" t="s">
         <v>541</v>
       </c>
@@ -17581,7 +17641,7 @@
       <c r="F172" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="G172" s="14"/>
+      <c r="G172" s="121"/>
       <c r="H172" s="14" t="s">
         <v>71</v>
       </c>
@@ -17609,7 +17669,7 @@
       <c r="F173" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="G173" s="14"/>
+      <c r="G173" s="121"/>
       <c r="H173" s="74" t="s">
         <v>88</v>
       </c>
@@ -17635,7 +17695,7 @@
       <c r="F174" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="G174" s="14"/>
+      <c r="G174" s="121"/>
       <c r="H174" s="74" t="s">
         <v>88</v>
       </c>
@@ -17661,7 +17721,7 @@
       <c r="F175" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="G175" s="14"/>
+      <c r="G175" s="121"/>
       <c r="H175" s="74" t="s">
         <v>88</v>
       </c>
@@ -17670,11 +17730,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="J100:J102"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
@@ -17688,6 +17743,11 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="G14:G16"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="J100:J102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17803,7 +17863,7 @@
         <v>66</v>
       </c>
       <c r="I4" s="112"/>
-      <c r="J4" s="173" t="s">
+      <c r="J4" s="175" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17829,7 +17889,7 @@
         <v>64</v>
       </c>
       <c r="I5" s="112"/>
-      <c r="J5" s="173"/>
+      <c r="J5" s="175"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
@@ -18325,7 +18385,7 @@
         <v>66</v>
       </c>
       <c r="I24" s="112"/>
-      <c r="J24" s="173" t="s">
+      <c r="J24" s="175" t="s">
         <v>67</v>
       </c>
     </row>
@@ -18351,7 +18411,7 @@
         <v>64</v>
       </c>
       <c r="I25" s="112"/>
-      <c r="J25" s="173"/>
+      <c r="J25" s="175"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
@@ -19941,6 +20001,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100A149A5EC5B415C43AF6C39044B727010" ma:contentTypeVersion="12" ma:contentTypeDescription="Створення нового документа." ma:contentTypeScope="" ma:versionID="adb818f6ab534f3e18047535574b097b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21e6baae-1cde-4856-8474-ad3fa22f8c64" xmlns:ns4="c81685c9-f42b-480a-a239-6692c6b498a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fea8c311f6104fdce7ed15e479397a23" ns3:_="" ns4:_="">
     <xsd:import namespace="21e6baae-1cde-4856-8474-ad3fa22f8c64"/>
@@ -20157,12 +20223,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E390EF-0789-4575-A79E-993C1583B70B}">
   <ds:schemaRefs>
@@ -20172,6 +20232,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{036AF336-40C6-4505-8C13-1D576AA1C6AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC7CC14F-5A0D-4DF5-B91E-4515F63D11A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20188,13 +20257,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{036AF336-40C6-4505-8C13-1D576AA1C6AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>